--- a/01. HUB/volumen & xenofobia/tasa xenobia/xenofobia_hub.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/xenofobia_hub.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealonsoordinolaaucca/Documents/Documentos Barometro Xenofobia/BX-Hub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2ECA7D-1249-2D49-ADEA-8E76127347D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="14160" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colombia" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Ecuador" sheetId="3" r:id="rId3"/>
     <sheet name="Peru" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,11 +46,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +114,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +166,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +200,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +235,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +411,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,9 +446,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44830.20833333334</v>
+        <v>44830.208333333343</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -439,12 +463,12 @@
         <v>307</v>
       </c>
       <c r="F2">
-        <v>0.08447991194276279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>8.4479911942762789E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44837.20833333334</v>
+        <v>44837.208333333343</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -459,12 +483,12 @@
         <v>1947</v>
       </c>
       <c r="F3">
-        <v>0.1276972519184102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.12769725191841019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44844.20833333334</v>
+        <v>44844.208333333343</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -479,12 +503,12 @@
         <v>3928</v>
       </c>
       <c r="F4">
-        <v>0.1741984123464455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.17419841234644551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44851.20833333334</v>
+        <v>44851.208333333343</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -502,9 +526,9 @@
         <v>0.1214711370613375</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44858.20833333334</v>
+        <v>44858.208333333343</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -519,12 +543,12 @@
         <v>1365</v>
       </c>
       <c r="F6">
-        <v>0.1076583326760785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.10765833267607849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44865.20833333334</v>
+        <v>44865.208333333343</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -542,9 +566,9 @@
         <v>0.1067620855849277</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44872.20833333334</v>
+        <v>44872.208333333343</v>
       </c>
       <c r="B8">
         <v>11</v>
@@ -562,9 +586,9 @@
         <v>0.1221801586890007</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44879.20833333334</v>
+        <v>44879.208333333343</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -579,12 +603,12 @@
         <v>1196</v>
       </c>
       <c r="F9">
-        <v>0.08749725656595216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>8.7497256565952156E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44886.20833333334</v>
+        <v>44886.208333333343</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -602,9 +626,9 @@
         <v>0.1095879618687466</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44893.20833333334</v>
+        <v>44893.208333333343</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -619,12 +643,12 @@
         <v>1934</v>
       </c>
       <c r="F11">
-        <v>0.1408081543502002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.14080815435020019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44900.20833333334</v>
+        <v>44900.208333333343</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -642,9 +666,9 @@
         <v>0.1971238938053097</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44907.20833333334</v>
+        <v>44907.208333333343</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -659,12 +683,12 @@
         <v>1422</v>
       </c>
       <c r="F13">
-        <v>0.09771181199752628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>9.7711811997526279E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44914.20833333334</v>
+        <v>44914.208333333343</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -682,9 +706,9 @@
         <v>0.2186563216363957</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44921.20833333334</v>
+        <v>44921.208333333343</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -699,12 +723,12 @@
         <v>2260</v>
       </c>
       <c r="F15">
-        <v>0.2052679382379655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.20526793823796549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44928.20833333334</v>
+        <v>44928.208333333343</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -722,9 +746,9 @@
         <v>0.1507457949857188</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44935.20833333334</v>
+        <v>44935.208333333343</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -742,9 +766,9 @@
         <v>0.1433555344116714</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44942.20833333334</v>
+        <v>44942.208333333343</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -759,12 +783,12 @@
         <v>1928</v>
       </c>
       <c r="F18">
-        <v>0.1470969710841535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.14709697108415351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44949.20833333334</v>
+        <v>44949.208333333343</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -782,9 +806,9 @@
         <v>0.1262761613067892</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44956.20833333334</v>
+        <v>44956.208333333343</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -802,9 +826,9 @@
         <v>0.1195459108811491</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44963.20833333334</v>
+        <v>44963.208333333343</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -819,12 +843,12 @@
         <v>1578</v>
       </c>
       <c r="F21">
-        <v>0.1132562979975597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.11325629799755969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44970.20833333334</v>
+        <v>44970.208333333343</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -842,9 +866,9 @@
         <v>0.1095262730027345</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44977.20833333334</v>
+        <v>44977.208333333343</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -862,9 +886,9 @@
         <v>0.1001989858142371</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44984.20833333334</v>
+        <v>44984.208333333343</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -882,9 +906,9 @@
         <v>0.1188635247913598</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44991.20833333334</v>
+        <v>44991.208333333343</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -899,12 +923,12 @@
         <v>2267</v>
       </c>
       <c r="F25">
-        <v>0.1497456899398903</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.14974568993989029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44998.20833333334</v>
+        <v>44998.208333333343</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -922,9 +946,9 @@
         <v>0.1036430937073836</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>45005.20833333334</v>
+        <v>45005.208333333343</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -942,9 +966,9 @@
         <v>0.1226846469813222</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>45012.20833333334</v>
+        <v>45012.208333333343</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -959,12 +983,12 @@
         <v>5029</v>
       </c>
       <c r="F28">
-        <v>0.2084214016328899</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.20842140163288991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>45019.20833333334</v>
+        <v>45019.208333333343</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -979,12 +1003,12 @@
         <v>1940</v>
       </c>
       <c r="F29">
-        <v>0.1423435321740406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.14234353217404061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>45026.20833333334</v>
+        <v>45026.208333333343</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1002,9 +1026,9 @@
         <v>0.107582717528793</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>45033.20833333334</v>
+        <v>45033.208333333343</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -1022,9 +1046,9 @@
         <v>0.1078268641470889</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>45040.20833333334</v>
+        <v>45040.208333333343</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -1039,12 +1063,12 @@
         <v>2056</v>
       </c>
       <c r="F32">
-        <v>0.1194654270772807</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.11946542707728069</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>45047.20833333334</v>
+        <v>45047.208333333343</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -1059,12 +1083,12 @@
         <v>1774</v>
       </c>
       <c r="F33">
-        <v>0.1345264275422765</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.13452642754227651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>45054.20833333334</v>
+        <v>45054.208333333343</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -1079,12 +1103,12 @@
         <v>1659</v>
       </c>
       <c r="F34">
-        <v>0.1270777479892762</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.12707774798927621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>45061.20833333334</v>
+        <v>45061.208333333343</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -1102,9 +1126,9 @@
         <v>0.1078236366650091</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>45068.20833333334</v>
+        <v>45068.208333333343</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -1119,12 +1143,12 @@
         <v>1231</v>
       </c>
       <c r="F36">
-        <v>0.09493329220328527</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>9.4933292203285266E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>45075.20833333334</v>
+        <v>45075.208333333343</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -1139,12 +1163,12 @@
         <v>1982</v>
       </c>
       <c r="F37">
-        <v>0.1267911975435005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0.12679119754350049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>45082.20833333334</v>
+        <v>45082.208333333343</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -1162,9 +1186,9 @@
         <v>0.1293505282784338</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>45089.20833333334</v>
+        <v>45089.208333333343</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -1179,12 +1203,12 @@
         <v>1138</v>
       </c>
       <c r="F39">
-        <v>0.10059223901706</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.10059223901706001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>45096.20833333334</v>
+        <v>45096.208333333343</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -1199,12 +1223,12 @@
         <v>1669</v>
       </c>
       <c r="F40">
-        <v>0.1073449961409828</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.10734499614098281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>45103.20833333334</v>
+        <v>45103.208333333343</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -1222,9 +1246,9 @@
         <v>0.2235557900290161</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>45110.20833333334</v>
+        <v>45110.208333333343</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -1242,9 +1266,9 @@
         <v>0.113244642506062</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>45117.20833333334</v>
+        <v>45117.208333333343</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -1262,9 +1286,9 @@
         <v>0.1075134391798975</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>45124.20833333334</v>
+        <v>45124.208333333343</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -1279,12 +1303,12 @@
         <v>1951</v>
       </c>
       <c r="F44">
-        <v>0.1203355332140875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.12033553321408751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>45131.20833333334</v>
+        <v>45131.208333333343</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -1302,9 +1326,9 @@
         <v>0.1248712136822584</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45138.20833333334</v>
+        <v>45138.208333333343</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -1319,12 +1343,12 @@
         <v>1343</v>
       </c>
       <c r="F46">
-        <v>0.1168740753633278</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.11687407536332781</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45145.20833333334</v>
+        <v>45145.208333333343</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -1339,12 +1363,12 @@
         <v>2351</v>
       </c>
       <c r="F47">
-        <v>0.1962109831413787</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.19621098314137869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45152.20833333334</v>
+        <v>45152.208333333343</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -1359,12 +1383,12 @@
         <v>2075</v>
       </c>
       <c r="F48">
-        <v>0.1846742613029548</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.18467426130295481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45159.20833333334</v>
+        <v>45159.208333333343</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -1379,12 +1403,12 @@
         <v>1808</v>
       </c>
       <c r="F49">
-        <v>0.1704213403713828</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.17042134037138279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45166.20833333334</v>
+        <v>45166.208333333343</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -1399,12 +1423,12 @@
         <v>1494</v>
       </c>
       <c r="F50">
-        <v>0.1297438124185845</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.12974381241858449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45173.20833333334</v>
+        <v>45173.208333333343</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -1419,12 +1443,12 @@
         <v>3036</v>
       </c>
       <c r="F51">
-        <v>0.1966703375008098</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.19667033750080981</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45180.20833333334</v>
+        <v>45180.208333333343</v>
       </c>
       <c r="B52">
         <v>9</v>
@@ -1439,12 +1463,12 @@
         <v>1890</v>
       </c>
       <c r="F52">
-        <v>0.1289310321304318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.12893103213043181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45187.20833333334</v>
+        <v>45187.208333333343</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -1459,12 +1483,12 @@
         <v>4114</v>
       </c>
       <c r="F53">
-        <v>0.2370088719898606</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.23700887198986059</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45194.20833333334</v>
+        <v>45194.208333333343</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -1482,9 +1506,9 @@
         <v>0.1971260717688155</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>45201.20833333334</v>
+        <v>45201.208333333343</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -1502,9 +1526,9 @@
         <v>0.2326238339245828</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>45208.20833333334</v>
+        <v>45208.208333333343</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -1522,9 +1546,9 @@
         <v>0.173671920607122</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>45215.20833333334</v>
+        <v>45215.208333333343</v>
       </c>
       <c r="B57">
         <v>10</v>
@@ -1539,12 +1563,12 @@
         <v>2186</v>
       </c>
       <c r="F57">
-        <v>0.1593526753171016</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.15935267531710159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>45222.20833333334</v>
+        <v>45222.208333333343</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -1559,12 +1583,12 @@
         <v>1838</v>
       </c>
       <c r="F58">
-        <v>0.1473582939148561</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.14735829391485611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>45229.20833333334</v>
+        <v>45229.208333333343</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -1579,12 +1603,12 @@
         <v>3283</v>
       </c>
       <c r="F59">
-        <v>0.205431449846693</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.20543144984669301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>45236.20833333334</v>
+        <v>45236.208333333343</v>
       </c>
       <c r="B60">
         <v>11</v>
@@ -1602,9 +1626,9 @@
         <v>0.1839249728724229</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>45243.20833333334</v>
+        <v>45243.208333333343</v>
       </c>
       <c r="B61">
         <v>11</v>
@@ -1622,9 +1646,9 @@
         <v>0.149197592778335</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>45250.20833333334</v>
+        <v>45250.208333333343</v>
       </c>
       <c r="B62">
         <v>11</v>
@@ -1639,12 +1663,12 @@
         <v>3266</v>
       </c>
       <c r="F62">
-        <v>0.1810722403947441</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.18107224039474409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>45257.20833333334</v>
+        <v>45257.208333333343</v>
       </c>
       <c r="B63">
         <v>11</v>
@@ -1659,12 +1683,12 @@
         <v>2076</v>
       </c>
       <c r="F63">
-        <v>0.1577148066550179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.15771480665501789</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>45264.20833333334</v>
+        <v>45264.208333333343</v>
       </c>
       <c r="B64">
         <v>12</v>
@@ -1679,12 +1703,12 @@
         <v>1540</v>
       </c>
       <c r="F64">
-        <v>0.1400891476394069</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.14008914763940691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>45271.20833333334</v>
+        <v>45271.208333333343</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -1699,12 +1723,12 @@
         <v>1932</v>
       </c>
       <c r="F65">
-        <v>0.1754927786356617</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.17549277863566171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>45278.20833333334</v>
+        <v>45278.208333333343</v>
       </c>
       <c r="B66">
         <v>12</v>
@@ -1719,12 +1743,12 @@
         <v>2749</v>
       </c>
       <c r="F66">
-        <v>0.1879786652078775</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.18797866520787751</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>45285.20833333334</v>
+        <v>45285.208333333343</v>
       </c>
       <c r="B67">
         <v>12</v>
@@ -1739,12 +1763,12 @@
         <v>4378</v>
       </c>
       <c r="F67">
-        <v>0.2189547386846712</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.21895473868467119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>45292.20833333334</v>
+        <v>45292.208333333343</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1759,12 +1783,12 @@
         <v>2155</v>
       </c>
       <c r="F68">
-        <v>0.1481608800275009</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.14816088002750091</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>45299.20833333334</v>
+        <v>45299.208333333343</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1779,12 +1803,12 @@
         <v>4006</v>
       </c>
       <c r="F69">
-        <v>0.1902907087212616</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.19029070872126161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>45306.20833333334</v>
+        <v>45306.208333333343</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1799,12 +1823,12 @@
         <v>2395</v>
       </c>
       <c r="F70">
-        <v>0.1598905133854062</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.15989051338540619</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>45313.20833333334</v>
+        <v>45313.208333333343</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1819,12 +1843,12 @@
         <v>4177</v>
       </c>
       <c r="F71">
-        <v>0.2137775730590102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.21377757305901021</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>45320.20833333334</v>
+        <v>45320.208333333343</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1839,12 +1863,12 @@
         <v>2908</v>
       </c>
       <c r="F72">
-        <v>0.1654811358333808</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.16548113583338081</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>45327.20833333334</v>
+        <v>45327.208333333343</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -1862,9 +1886,9 @@
         <v>0.1721248516165072</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>45334.20833333334</v>
+        <v>45334.208333333343</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -1879,12 +1903,12 @@
         <v>3519</v>
       </c>
       <c r="F74">
-        <v>0.1801751062413599</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.18017510624135991</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>45341.20833333334</v>
+        <v>45341.208333333343</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -1899,12 +1923,12 @@
         <v>4407</v>
       </c>
       <c r="F75">
-        <v>0.2222390317700454</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.22223903177004539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>45348.20833333334</v>
+        <v>45348.208333333343</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -1919,12 +1943,12 @@
         <v>3576</v>
       </c>
       <c r="F76">
-        <v>0.2155905226984988</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.21559052269849879</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>45355.20833333334</v>
+        <v>45355.208333333343</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -1939,12 +1963,12 @@
         <v>3006</v>
       </c>
       <c r="F77">
-        <v>0.1818951954495946</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.18189519544959459</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>45362.20833333334</v>
+        <v>45362.208333333343</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -1959,12 +1983,12 @@
         <v>2726</v>
       </c>
       <c r="F78">
-        <v>0.1969795505455597</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.19697955054555971</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>45369.20833333334</v>
+        <v>45369.208333333343</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -1982,9 +2006,9 @@
         <v>0.1419714817110973</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>45376.20833333334</v>
+        <v>45376.208333333343</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -2002,9 +2026,9 @@
         <v>0.1507569866898413</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>45383.20833333334</v>
+        <v>45383.208333333343</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -2022,9 +2046,9 @@
         <v>0.1177974081879736</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>45390.20833333334</v>
+        <v>45390.208333333343</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -2039,12 +2063,12 @@
         <v>2353</v>
       </c>
       <c r="F82">
-        <v>0.1440641645747872</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.14406416457478721</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>45397.20833333334</v>
+        <v>45397.208333333343</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -2059,12 +2083,12 @@
         <v>2526</v>
       </c>
       <c r="F83">
-        <v>0.1629256965944272</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.16292569659442721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>45404.20833333334</v>
+        <v>45404.208333333343</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -2079,12 +2103,12 @@
         <v>2710</v>
       </c>
       <c r="F84">
-        <v>0.1522557447047587</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.15225574470475869</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>45411.20833333334</v>
+        <v>45411.208333333343</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -2099,12 +2123,12 @@
         <v>2709</v>
       </c>
       <c r="F85">
-        <v>0.1625952823960146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.16259528239601459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>45418.20833333334</v>
+        <v>45418.208333333343</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -2119,12 +2143,12 @@
         <v>1478</v>
       </c>
       <c r="F86">
-        <v>0.1260769427620916</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.12607694276209161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>45425.20833333334</v>
+        <v>45425.208333333343</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -2139,12 +2163,12 @@
         <v>1826</v>
       </c>
       <c r="F87">
-        <v>0.1445306316289378</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.14453063162893781</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>45432.20833333334</v>
+        <v>45432.208333333343</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -2159,12 +2183,12 @@
         <v>1734</v>
       </c>
       <c r="F88">
-        <v>0.1324068417837508</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.13240684178375081</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>45439.20833333334</v>
+        <v>45439.208333333343</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -2179,12 +2203,12 @@
         <v>3013</v>
       </c>
       <c r="F89">
-        <v>0.2091780061094141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.20917800610941409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>45446.20833333334</v>
+        <v>45446.208333333343</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -2199,12 +2223,12 @@
         <v>2290</v>
       </c>
       <c r="F90">
-        <v>0.1636883488205861</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.16368834882058611</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>45453.20833333334</v>
+        <v>45453.208333333343</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -2219,12 +2243,12 @@
         <v>1953</v>
       </c>
       <c r="F91">
-        <v>0.1523163313055685</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.15231633130556849</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>45460.20833333334</v>
+        <v>45460.208333333343</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -2239,12 +2263,12 @@
         <v>1672</v>
       </c>
       <c r="F92">
-        <v>0.129451842675751</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.12945184267575099</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>45467.20833333334</v>
+        <v>45467.208333333343</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -2259,12 +2283,12 @@
         <v>2920</v>
       </c>
       <c r="F93">
-        <v>0.1759990356217226</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.17599903562172259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>45474.20833333334</v>
+        <v>45474.208333333343</v>
       </c>
       <c r="B94">
         <v>7</v>
@@ -2282,9 +2306,9 @@
         <v>0.1598600916301296</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>45481.20833333334</v>
+        <v>45481.208333333343</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -2299,12 +2323,12 @@
         <v>3549</v>
       </c>
       <c r="F95">
-        <v>0.2240106040522628</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.22401060405226281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>45488.20833333334</v>
+        <v>45488.208333333343</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -2319,12 +2343,12 @@
         <v>2975</v>
       </c>
       <c r="F96">
-        <v>0.1933575978161965</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>0.19335759781619649</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>45495.20833333334</v>
+        <v>45495.208333333343</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -2339,12 +2363,12 @@
         <v>5744</v>
       </c>
       <c r="F97">
-        <v>0.06966477465677</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>6.9664774656769998E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>45502.20833333334</v>
+        <v>45502.208333333343</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -2359,12 +2383,12 @@
         <v>11002</v>
       </c>
       <c r="F98">
-        <v>0.05162131854416808</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>5.1621318544168078E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>45509.20833333334</v>
+        <v>45509.208333333343</v>
       </c>
       <c r="B99">
         <v>8</v>
@@ -2379,12 +2403,12 @@
         <v>4215</v>
       </c>
       <c r="F99">
-        <v>0.07361673885706302</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>7.3616738857063019E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>45516.20833333334</v>
+        <v>45516.208333333343</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -2399,12 +2423,12 @@
         <v>3802</v>
       </c>
       <c r="F100">
-        <v>0.06201474522085209</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>6.201474522085209E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>45523.20833333334</v>
+        <v>45523.208333333343</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -2419,12 +2443,12 @@
         <v>2755</v>
       </c>
       <c r="F101">
-        <v>0.09351345847052035</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>9.3513458470520353E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>45530.20833333334</v>
+        <v>45530.208333333343</v>
       </c>
       <c r="B102">
         <v>8</v>
@@ -2439,12 +2463,12 @@
         <v>2193</v>
       </c>
       <c r="F102">
-        <v>0.09303410826404208</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>9.3034108264042084E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>45537.20833333334</v>
+        <v>45537.208333333343</v>
       </c>
       <c r="B103">
         <v>9</v>
@@ -2459,12 +2483,12 @@
         <v>1797</v>
       </c>
       <c r="F103">
-        <v>0.08116897782194318</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>8.1168977821943183E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>45544.20833333334</v>
+        <v>45544.208333333343</v>
       </c>
       <c r="B104">
         <v>9</v>
@@ -2479,12 +2503,12 @@
         <v>1738</v>
       </c>
       <c r="F104">
-        <v>0.09735603853909926</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>9.7356038539099257E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>45551.20833333334</v>
+        <v>45551.208333333343</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -2499,12 +2523,12 @@
         <v>1926</v>
       </c>
       <c r="F105">
-        <v>0.08156178538155331</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>8.1561785381553314E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>45558.20833333334</v>
+        <v>45558.208333333343</v>
       </c>
       <c r="B106">
         <v>9</v>
@@ -2519,12 +2543,12 @@
         <v>2130</v>
       </c>
       <c r="F106">
-        <v>0.08892043082574935</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>8.8920430825749353E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>45565.20833333334</v>
+        <v>45565.208333333343</v>
       </c>
       <c r="B107">
         <v>9</v>
@@ -2533,13 +2557,273 @@
         <v>2024</v>
       </c>
       <c r="D107">
-        <v>2739</v>
+        <v>3772</v>
       </c>
       <c r="E107">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="F107">
-        <v>0.2044541803577948</v>
+        <v>0.15562036055143161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>45572.208333333343</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>2024</v>
+      </c>
+      <c r="D108">
+        <v>4648</v>
+      </c>
+      <c r="E108">
+        <v>869</v>
+      </c>
+      <c r="F108">
+        <v>0.18696213425129091</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>45579.208333333343</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>2024</v>
+      </c>
+      <c r="D109">
+        <v>4745</v>
+      </c>
+      <c r="E109">
+        <v>1072</v>
+      </c>
+      <c r="F109">
+        <v>0.22592202318229709</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>45586.208333333343</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>2024</v>
+      </c>
+      <c r="D110">
+        <v>4401</v>
+      </c>
+      <c r="E110">
+        <v>774</v>
+      </c>
+      <c r="F110">
+        <v>0.17586912065439669</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>45593.208333333343</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>2024</v>
+      </c>
+      <c r="D111">
+        <v>4303</v>
+      </c>
+      <c r="E111">
+        <v>937</v>
+      </c>
+      <c r="F111">
+        <v>0.21775505461306069</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>45600.208333333343</v>
+      </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>2024</v>
+      </c>
+      <c r="D112">
+        <v>5488</v>
+      </c>
+      <c r="E112">
+        <v>916</v>
+      </c>
+      <c r="F112">
+        <v>0.16690962099125359</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>45607.208333333343</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>2024</v>
+      </c>
+      <c r="D113">
+        <v>4468</v>
+      </c>
+      <c r="E113">
+        <v>782</v>
+      </c>
+      <c r="F113">
+        <v>0.17502238137869289</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>45614.208333333343</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>2024</v>
+      </c>
+      <c r="D114">
+        <v>4112</v>
+      </c>
+      <c r="E114">
+        <v>737</v>
+      </c>
+      <c r="F114">
+        <v>0.1792315175097276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>45621.208333333343</v>
+      </c>
+      <c r="B115">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>2024</v>
+      </c>
+      <c r="D115">
+        <v>5130</v>
+      </c>
+      <c r="E115">
+        <v>914</v>
+      </c>
+      <c r="F115">
+        <v>0.17816764132553611</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>45628.208333333343</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>2024</v>
+      </c>
+      <c r="D116">
+        <v>4531</v>
+      </c>
+      <c r="E116">
+        <v>896</v>
+      </c>
+      <c r="F116">
+        <v>0.1977488413153829</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>45635.208333333343</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>2024</v>
+      </c>
+      <c r="D117">
+        <v>3966</v>
+      </c>
+      <c r="E117">
+        <v>803</v>
+      </c>
+      <c r="F117">
+        <v>0.20247100353000511</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>45642.208333333343</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>2024</v>
+      </c>
+      <c r="D118">
+        <v>4265</v>
+      </c>
+      <c r="E118">
+        <v>752</v>
+      </c>
+      <c r="F118">
+        <v>0.17631887456037509</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>45649.208333333343</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>2024</v>
+      </c>
+      <c r="D119">
+        <v>4458</v>
+      </c>
+      <c r="E119">
+        <v>867</v>
+      </c>
+      <c r="F119">
+        <v>0.1944818304172275</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>45656.208333333343</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>2024</v>
+      </c>
+      <c r="D120">
+        <v>1171</v>
+      </c>
+      <c r="E120">
+        <v>241</v>
+      </c>
+      <c r="F120">
+        <v>0.20580700256191289</v>
       </c>
     </row>
   </sheetData>
@@ -2548,14 +2832,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2575,9 +2864,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44802.16666666666</v>
+        <v>44802.166666666657</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -2592,10 +2881,10 @@
         <v>964</v>
       </c>
       <c r="F2">
-        <v>0.05222384744569045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>5.2223847445690447E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44809.125</v>
       </c>
@@ -2612,10 +2901,10 @@
         <v>2352</v>
       </c>
       <c r="F3">
-        <v>0.08397600685518423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8.3976006855184235E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44816.125</v>
       </c>
@@ -2632,10 +2921,10 @@
         <v>1506</v>
       </c>
       <c r="F4">
-        <v>0.04386322595677754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>4.3863225956777538E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44823.125</v>
       </c>
@@ -2652,10 +2941,10 @@
         <v>2351</v>
       </c>
       <c r="F5">
-        <v>0.08140863603310364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>8.1408636033103637E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44830.125</v>
       </c>
@@ -2672,10 +2961,10 @@
         <v>1356</v>
       </c>
       <c r="F6">
-        <v>0.05384584838978676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>5.384584838978676E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44837.125</v>
       </c>
@@ -2692,10 +2981,10 @@
         <v>1722</v>
       </c>
       <c r="F7">
-        <v>0.05089554885618017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>5.0895548856180167E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44844.125</v>
       </c>
@@ -2712,10 +3001,10 @@
         <v>2669</v>
       </c>
       <c r="F8">
-        <v>0.04247632688788096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>4.2476326887880958E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44851.125</v>
       </c>
@@ -2732,10 +3021,10 @@
         <v>2000</v>
       </c>
       <c r="F9">
-        <v>0.05205351100931758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>5.2053511009317578E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44858.125</v>
       </c>
@@ -2752,10 +3041,10 @@
         <v>2021</v>
       </c>
       <c r="F10">
-        <v>0.06073263815848785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>6.0732638158487853E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44865.125</v>
       </c>
@@ -2772,10 +3061,10 @@
         <v>2070</v>
       </c>
       <c r="F11">
-        <v>0.05533427784757679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>5.5334277847576788E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44872.125</v>
       </c>
@@ -2792,10 +3081,10 @@
         <v>2082</v>
       </c>
       <c r="F12">
-        <v>0.05130985533676714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>5.1309855336767143E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44879.125</v>
       </c>
@@ -2812,10 +3101,10 @@
         <v>1999</v>
       </c>
       <c r="F13">
-        <v>0.05433689418032564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>5.433689418032564E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44886.125</v>
       </c>
@@ -2832,10 +3121,10 @@
         <v>2243</v>
       </c>
       <c r="F14">
-        <v>0.06050551644142321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>6.0505516441423213E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44893.125</v>
       </c>
@@ -2852,10 +3141,10 @@
         <v>5342</v>
       </c>
       <c r="F15">
-        <v>0.09786929996519063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>9.7869299965190629E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44900.125</v>
       </c>
@@ -2872,10 +3161,10 @@
         <v>3568</v>
       </c>
       <c r="F16">
-        <v>0.08842188739095956</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>8.8421887390959561E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44907.125</v>
       </c>
@@ -2892,10 +3181,10 @@
         <v>2771</v>
       </c>
       <c r="F17">
-        <v>0.068573832562053</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>6.8573832562053003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44914.125</v>
       </c>
@@ -2912,10 +3201,10 @@
         <v>2554</v>
       </c>
       <c r="F18">
-        <v>0.08055765833964168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>8.055765833964168E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44921.125</v>
       </c>
@@ -2932,10 +3221,10 @@
         <v>1910</v>
       </c>
       <c r="F19">
-        <v>0.05490556817201828</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>5.4905568172018283E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44928.125</v>
       </c>
@@ -2952,10 +3241,10 @@
         <v>1228</v>
       </c>
       <c r="F20">
-        <v>0.0527650066600782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>5.2765006660078197E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44935.125</v>
       </c>
@@ -2972,10 +3261,10 @@
         <v>1923</v>
       </c>
       <c r="F21">
-        <v>0.06549950611396846</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>6.5499506113968459E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44942.125</v>
       </c>
@@ -2992,10 +3281,10 @@
         <v>2208</v>
       </c>
       <c r="F22">
-        <v>0.05437352245862884</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>5.4373522458628837E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44949.125</v>
       </c>
@@ -3012,10 +3301,10 @@
         <v>1881</v>
       </c>
       <c r="F23">
-        <v>0.04830632527799892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>4.830632527799892E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44956.125</v>
       </c>
@@ -3032,10 +3321,10 @@
         <v>2844</v>
       </c>
       <c r="F24">
-        <v>0.04316612278970934</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>4.3166122789709341E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44963.125</v>
       </c>
@@ -3052,10 +3341,10 @@
         <v>3337</v>
       </c>
       <c r="F25">
-        <v>0.08237878937493828</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>8.2378789374938283E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44970.125</v>
       </c>
@@ -3072,10 +3361,10 @@
         <v>1898</v>
       </c>
       <c r="F26">
-        <v>0.06671118765596991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>6.6711187655969909E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44977.125</v>
       </c>
@@ -3092,10 +3381,10 @@
         <v>2312</v>
       </c>
       <c r="F27">
-        <v>0.07674179307597837</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>7.6741793075978365E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44984.125</v>
       </c>
@@ -3112,10 +3401,10 @@
         <v>2510</v>
       </c>
       <c r="F28">
-        <v>0.06531695638596856</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>6.5316956385968558E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44991.125</v>
       </c>
@@ -3132,10 +3421,10 @@
         <v>1875</v>
       </c>
       <c r="F29">
-        <v>0.06077401789187087</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>6.0774017891870868E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44998.125</v>
       </c>
@@ -3152,10 +3441,10 @@
         <v>6088</v>
       </c>
       <c r="F30">
-        <v>0.07605436737957226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>7.605436737957226E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45005.125</v>
       </c>
@@ -3172,10 +3461,10 @@
         <v>2830</v>
       </c>
       <c r="F31">
-        <v>0.07132775481399335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>7.1327754813993352E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45012.125</v>
       </c>
@@ -3192,12 +3481,12 @@
         <v>2652</v>
       </c>
       <c r="F32">
-        <v>0.07361145807311183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>7.3611458073111827E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>45019.16666666666</v>
+        <v>45019.166666666657</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -3212,12 +3501,12 @@
         <v>5932</v>
       </c>
       <c r="F33">
-        <v>0.05839099920268528</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>5.8390999202685277E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>45026.16666666666</v>
+        <v>45026.166666666657</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -3232,12 +3521,12 @@
         <v>3422</v>
       </c>
       <c r="F34">
-        <v>0.05062055295040014</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>5.062055295040014E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>45033.16666666666</v>
+        <v>45033.166666666657</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -3252,12 +3541,12 @@
         <v>3515</v>
       </c>
       <c r="F35">
-        <v>0.05465373013651771</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>5.4653730136517711E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>45040.16666666666</v>
+        <v>45040.166666666657</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -3272,12 +3561,12 @@
         <v>4172</v>
       </c>
       <c r="F36">
-        <v>0.04945178687844486</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>4.9451786878444863E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>45047.16666666666</v>
+        <v>45047.166666666657</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -3292,12 +3581,12 @@
         <v>2266</v>
       </c>
       <c r="F37">
-        <v>0.06180955238536865</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>6.180955238536865E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>45054.16666666666</v>
+        <v>45054.166666666657</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -3312,12 +3601,12 @@
         <v>2146</v>
       </c>
       <c r="F38">
-        <v>0.08140196487501422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>8.1401964875014221E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>45061.16666666666</v>
+        <v>45061.166666666657</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -3332,12 +3621,12 @@
         <v>1454</v>
       </c>
       <c r="F39">
-        <v>0.04741871310700192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>4.7418713107001922E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>45068.16666666666</v>
+        <v>45068.166666666657</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -3352,12 +3641,12 @@
         <v>1700</v>
       </c>
       <c r="F40">
-        <v>0.0714225695319721</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>7.1422569531972097E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>45075.16666666666</v>
+        <v>45075.166666666657</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -3372,12 +3661,12 @@
         <v>1322</v>
       </c>
       <c r="F41">
-        <v>0.05540189422512782</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>5.5401894225127819E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>45082.16666666666</v>
+        <v>45082.166666666657</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -3392,12 +3681,12 @@
         <v>1430</v>
       </c>
       <c r="F42">
-        <v>0.06598375784422296</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>6.5983757844222959E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>45089.16666666666</v>
+        <v>45089.166666666657</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -3412,12 +3701,12 @@
         <v>974</v>
       </c>
       <c r="F43">
-        <v>0.04675723681052278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>4.6757236810522781E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>45096.16666666666</v>
+        <v>45096.166666666657</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -3432,12 +3721,12 @@
         <v>1174</v>
       </c>
       <c r="F44">
-        <v>0.07644224508399532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>7.6442245083995317E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>45103.16666666666</v>
+        <v>45103.166666666657</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -3452,12 +3741,12 @@
         <v>1454</v>
       </c>
       <c r="F45">
-        <v>0.07967123287671232</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>7.9671232876712322E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45110.16666666666</v>
+        <v>45110.166666666657</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3472,12 +3761,12 @@
         <v>1173</v>
       </c>
       <c r="F46">
-        <v>0.06568852550820406</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>6.568852550820406E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45117.16666666666</v>
+        <v>45117.166666666657</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -3492,12 +3781,12 @@
         <v>930</v>
       </c>
       <c r="F47">
-        <v>0.06473618265348741</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>6.4736182653487406E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45124.16666666666</v>
+        <v>45124.166666666657</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3512,12 +3801,12 @@
         <v>720</v>
       </c>
       <c r="F48">
-        <v>0.04741209008297115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>4.7412090082971148E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45131.16666666666</v>
+        <v>45131.166666666657</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3532,12 +3821,12 @@
         <v>1163</v>
       </c>
       <c r="F49">
-        <v>0.06279697624190064</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>6.2796976241900643E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45138.16666666666</v>
+        <v>45138.166666666657</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3552,12 +3841,12 @@
         <v>795</v>
       </c>
       <c r="F50">
-        <v>0.03603807796917498</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>3.6038077969174978E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45145.16666666666</v>
+        <v>45145.166666666657</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -3572,12 +3861,12 @@
         <v>812</v>
       </c>
       <c r="F51">
-        <v>0.0482672531653094</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>4.8267253165309401E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45152.16666666666</v>
+        <v>45152.166666666657</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -3592,12 +3881,12 @@
         <v>1392</v>
       </c>
       <c r="F52">
-        <v>0.08994572240889119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>8.9945722408891191E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45159.16666666666</v>
+        <v>45159.166666666657</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -3612,12 +3901,12 @@
         <v>743</v>
       </c>
       <c r="F53">
-        <v>0.05371990456221531</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>5.3719904562215308E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45166.16666666666</v>
+        <v>45166.166666666657</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -3632,10 +3921,10 @@
         <v>682</v>
       </c>
       <c r="F54">
-        <v>0.04175339782049712</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>4.1753397820497119E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45173.125</v>
       </c>
@@ -3652,10 +3941,10 @@
         <v>834</v>
       </c>
       <c r="F55">
-        <v>0.04661561679056509</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>4.6615616790565091E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45180.125</v>
       </c>
@@ -3672,10 +3961,10 @@
         <v>1124</v>
       </c>
       <c r="F56">
-        <v>0.05280466034012966</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>5.2804660340129657E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45187.125</v>
       </c>
@@ -3692,10 +3981,10 @@
         <v>1588</v>
       </c>
       <c r="F57">
-        <v>0.07335889499699727</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>7.335889499699727E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45194.125</v>
       </c>
@@ -3712,10 +4001,10 @@
         <v>1169</v>
       </c>
       <c r="F58">
-        <v>0.05893622384673557</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>5.8936223846735573E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45201.125</v>
       </c>
@@ -3732,10 +4021,10 @@
         <v>878</v>
       </c>
       <c r="F59">
-        <v>0.04694936099673814</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>4.6949360996738139E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45208.125</v>
       </c>
@@ -3752,10 +4041,10 @@
         <v>953</v>
       </c>
       <c r="F60">
-        <v>0.05065107626893436</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>5.0651076268934357E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45215.125</v>
       </c>
@@ -3772,10 +4061,10 @@
         <v>1591</v>
       </c>
       <c r="F61">
-        <v>0.05797682384665841</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>5.7976823846658407E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>45222.125</v>
       </c>
@@ -3792,10 +4081,10 @@
         <v>1670</v>
       </c>
       <c r="F62">
-        <v>0.06425548287803001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>6.4255482878030012E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>45229.125</v>
       </c>
@@ -3815,7 +4104,7 @@
         <v>0.1053272113735686</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>45236.125</v>
       </c>
@@ -3832,10 +4121,10 @@
         <v>2862</v>
       </c>
       <c r="F64">
-        <v>0.07033842070338421</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>7.0338420703384211E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>45243.125</v>
       </c>
@@ -3852,10 +4141,10 @@
         <v>6625</v>
       </c>
       <c r="F65">
-        <v>0.06040243980270056</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>6.0402439802700561E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>45250.125</v>
       </c>
@@ -3872,10 +4161,10 @@
         <v>4149</v>
       </c>
       <c r="F66">
-        <v>0.05026714643986479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>5.0267146439864789E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>45257.125</v>
       </c>
@@ -3892,10 +4181,10 @@
         <v>2850</v>
       </c>
       <c r="F67">
-        <v>0.06016593130528405</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>6.0165931305284047E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>45264.125</v>
       </c>
@@ -3912,10 +4201,10 @@
         <v>2925</v>
       </c>
       <c r="F68">
-        <v>0.08501671268710943</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>8.5016712687109433E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45271.125</v>
       </c>
@@ -3932,10 +4221,10 @@
         <v>1410</v>
       </c>
       <c r="F69">
-        <v>0.06462257665337549</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>6.4622576653375494E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45278.125</v>
       </c>
@@ -3952,10 +4241,10 @@
         <v>1489</v>
       </c>
       <c r="F70">
-        <v>0.06161294326974801</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>6.1612943269748012E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45285.125</v>
       </c>
@@ -3975,7 +4264,7 @@
         <v>0.1041138093512142</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45292.125</v>
       </c>
@@ -3992,10 +4281,10 @@
         <v>2437</v>
       </c>
       <c r="F72">
-        <v>0.07750039751947846</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>7.7500397519478459E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45299.125</v>
       </c>
@@ -4012,10 +4301,10 @@
         <v>3280</v>
       </c>
       <c r="F73">
-        <v>0.07625247006858073</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>7.6252470068580727E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45306.125</v>
       </c>
@@ -4032,10 +4321,10 @@
         <v>6060</v>
       </c>
       <c r="F74">
-        <v>0.09426184883883712</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>9.426184883883712E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45313.125</v>
       </c>
@@ -4052,10 +4341,10 @@
         <v>6458</v>
       </c>
       <c r="F75">
-        <v>0.09211370865366786</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>9.2113708653667858E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>45320.125</v>
       </c>
@@ -4072,10 +4361,10 @@
         <v>6841</v>
       </c>
       <c r="F76">
-        <v>0.07976726289032439</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>7.9767262890324389E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45327.125</v>
       </c>
@@ -4092,10 +4381,10 @@
         <v>3314</v>
       </c>
       <c r="F77">
-        <v>0.08019552802245668</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>8.0195528022456677E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45334.125</v>
       </c>
@@ -4112,10 +4401,10 @@
         <v>2842</v>
       </c>
       <c r="F78">
-        <v>0.09201282092789848</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>9.2012820927898475E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>45341.125</v>
       </c>
@@ -4132,10 +4421,10 @@
         <v>7769</v>
       </c>
       <c r="F79">
-        <v>0.0683908906045054</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>6.83908906045054E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45348.125</v>
       </c>
@@ -4152,10 +4441,10 @@
         <v>5621</v>
       </c>
       <c r="F80">
-        <v>0.08028050330633989</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>8.0280503306339887E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45355.125</v>
       </c>
@@ -4172,10 +4461,10 @@
         <v>4002</v>
       </c>
       <c r="F81">
-        <v>0.07118969688344955</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>7.1189696883449546E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>45362.125</v>
       </c>
@@ -4192,10 +4481,10 @@
         <v>3430</v>
       </c>
       <c r="F82">
-        <v>0.08228971738400269</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>8.2289717384002689E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45369.125</v>
       </c>
@@ -4215,7 +4504,7 @@
         <v>0.1428648068669528</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45376.125</v>
       </c>
@@ -4235,7 +4524,7 @@
         <v>0.1039223800984044</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>45383.125</v>
       </c>
@@ -4252,12 +4541,12 @@
         <v>3173</v>
       </c>
       <c r="F85">
-        <v>0.08937524646498789</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>8.9375246464987887E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>45390.16666666666</v>
+        <v>45390.166666666657</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -4272,12 +4561,12 @@
         <v>8929</v>
       </c>
       <c r="F86">
-        <v>0.0900754579937051</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>9.0075457993705102E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>45397.16666666666</v>
+        <v>45397.166666666657</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -4295,9 +4584,9 @@
         <v>0.1014805675508945</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>45404.16666666666</v>
+        <v>45404.166666666657</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -4312,12 +4601,12 @@
         <v>2840</v>
       </c>
       <c r="F88">
-        <v>0.07356750595793182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>7.3567505957931822E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>45411.16666666666</v>
+        <v>45411.166666666657</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -4335,9 +4624,9 @@
         <v>0.1223122414795064</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>45418.16666666666</v>
+        <v>45418.166666666657</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4352,12 +4641,12 @@
         <v>1395</v>
       </c>
       <c r="F90">
-        <v>0.05537032626815908</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>5.5370326268159083E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>45425.16666666666</v>
+        <v>45425.166666666657</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4372,12 +4661,12 @@
         <v>1968</v>
       </c>
       <c r="F91">
-        <v>0.05223484446331882</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>5.2234844463318823E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>45432.16666666666</v>
+        <v>45432.166666666657</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4392,12 +4681,12 @@
         <v>2276</v>
       </c>
       <c r="F92">
-        <v>0.08509365536321831</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>8.5093655363218307E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>45439.16666666666</v>
+        <v>45439.166666666657</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4412,12 +4701,12 @@
         <v>2492</v>
       </c>
       <c r="F93">
-        <v>0.07478093866282559</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>7.4780938662825591E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>45446.16666666666</v>
+        <v>45446.166666666657</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -4432,12 +4721,12 @@
         <v>1329</v>
       </c>
       <c r="F94">
-        <v>0.05020588568622266</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>5.0205885686222661E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>45453.16666666666</v>
+        <v>45453.166666666657</v>
       </c>
       <c r="B95">
         <v>6</v>
@@ -4452,12 +4741,12 @@
         <v>3577</v>
       </c>
       <c r="F95">
-        <v>0.1111732711732712</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.11117327117327119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>45460.16666666666</v>
+        <v>45460.166666666657</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -4472,12 +4761,12 @@
         <v>3487</v>
       </c>
       <c r="F96">
-        <v>0.08643811506903647</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>8.6438115069036467E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>45467.16666666666</v>
+        <v>45467.166666666657</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -4492,12 +4781,12 @@
         <v>2344</v>
       </c>
       <c r="F97">
-        <v>0.06576141847155201</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>6.5761418471552008E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>45474.16666666666</v>
+        <v>45474.166666666657</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -4512,12 +4801,12 @@
         <v>2328</v>
       </c>
       <c r="F98">
-        <v>0.07630535251892884</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>7.6305352518928837E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>45481.16666666666</v>
+        <v>45481.166666666657</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4532,12 +4821,12 @@
         <v>5093</v>
       </c>
       <c r="F99">
-        <v>0.1281419046420934</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.12814190464209341</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>45488.16666666666</v>
+        <v>45488.166666666657</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -4552,12 +4841,12 @@
         <v>7272</v>
       </c>
       <c r="F100">
-        <v>0.06972997852101871</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>6.9729978521018712E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>45495.16666666666</v>
+        <v>45495.166666666657</v>
       </c>
       <c r="B101">
         <v>7</v>
@@ -4572,12 +4861,12 @@
         <v>5170</v>
       </c>
       <c r="F101">
-        <v>0.06832388428550662</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>6.832388428550662E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>45502.16666666666</v>
+        <v>45502.166666666657</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -4592,12 +4881,12 @@
         <v>6987</v>
       </c>
       <c r="F102">
-        <v>0.05270979812305743</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>5.2709798123057428E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>45509.16666666666</v>
+        <v>45509.166666666657</v>
       </c>
       <c r="B103">
         <v>8</v>
@@ -4612,12 +4901,12 @@
         <v>3915</v>
       </c>
       <c r="F103">
-        <v>0.06230603962759609</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>6.2306039627596087E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>45516.16666666666</v>
+        <v>45516.166666666657</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -4632,12 +4921,12 @@
         <v>6137</v>
       </c>
       <c r="F104">
-        <v>0.09912616497875983</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>9.9126164978759826E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>45523.16666666666</v>
+        <v>45523.166666666657</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -4652,12 +4941,12 @@
         <v>5348</v>
       </c>
       <c r="F105">
-        <v>0.09574963297167616</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>9.5749632971676157E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>45530.16666666666</v>
+        <v>45530.166666666657</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -4672,7 +4961,287 @@
         <v>2240</v>
       </c>
       <c r="F106">
-        <v>0.06614303431169904</v>
+        <v>6.6143034311699045E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>45565.125</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>2024</v>
+      </c>
+      <c r="D107">
+        <v>26481</v>
+      </c>
+      <c r="E107">
+        <v>1964</v>
+      </c>
+      <c r="F107">
+        <v>7.416638344473396E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>45572.125</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>2024</v>
+      </c>
+      <c r="D108">
+        <v>39699</v>
+      </c>
+      <c r="E108">
+        <v>2287</v>
+      </c>
+      <c r="F108">
+        <v>5.7608503992543893E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>45579.125</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>2024</v>
+      </c>
+      <c r="D109">
+        <v>26497</v>
+      </c>
+      <c r="E109">
+        <v>1751</v>
+      </c>
+      <c r="F109">
+        <v>6.6082952787107976E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>45586.125</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>2024</v>
+      </c>
+      <c r="D110">
+        <v>40976</v>
+      </c>
+      <c r="E110">
+        <v>4343</v>
+      </c>
+      <c r="F110">
+        <v>0.1059888715345568</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>45593.125</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>2024</v>
+      </c>
+      <c r="D111">
+        <v>62900</v>
+      </c>
+      <c r="E111">
+        <v>7010</v>
+      </c>
+      <c r="F111">
+        <v>0.1114467408585056</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>45600.125</v>
+      </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>2024</v>
+      </c>
+      <c r="D112">
+        <v>49106</v>
+      </c>
+      <c r="E112">
+        <v>3960</v>
+      </c>
+      <c r="F112">
+        <v>8.064187675640451E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>45607.125</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>2024</v>
+      </c>
+      <c r="D113">
+        <v>54452</v>
+      </c>
+      <c r="E113">
+        <v>6404</v>
+      </c>
+      <c r="F113">
+        <v>0.1176081686623081</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>45614.125</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>2024</v>
+      </c>
+      <c r="D114">
+        <v>44658</v>
+      </c>
+      <c r="E114">
+        <v>3802</v>
+      </c>
+      <c r="F114">
+        <v>8.5135921895293121E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>45621.125</v>
+      </c>
+      <c r="B115">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>2024</v>
+      </c>
+      <c r="D115">
+        <v>50110</v>
+      </c>
+      <c r="E115">
+        <v>5273</v>
+      </c>
+      <c r="F115">
+        <v>0.105228497305927</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>45628.125</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>2024</v>
+      </c>
+      <c r="D116">
+        <v>106472</v>
+      </c>
+      <c r="E116">
+        <v>21599</v>
+      </c>
+      <c r="F116">
+        <v>0.20286084604403029</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>45635.125</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>2024</v>
+      </c>
+      <c r="D117">
+        <v>80671</v>
+      </c>
+      <c r="E117">
+        <v>7283</v>
+      </c>
+      <c r="F117">
+        <v>9.0280274200146268E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>45642.125</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>2024</v>
+      </c>
+      <c r="D118">
+        <v>94475</v>
+      </c>
+      <c r="E118">
+        <v>6595</v>
+      </c>
+      <c r="F118">
+        <v>6.9806827202963745E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>45649.125</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>2024</v>
+      </c>
+      <c r="D119">
+        <v>52139</v>
+      </c>
+      <c r="E119">
+        <v>4435</v>
+      </c>
+      <c r="F119">
+        <v>8.5061086710523787E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>45656.125</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>2024</v>
+      </c>
+      <c r="D120">
+        <v>23145</v>
+      </c>
+      <c r="E120">
+        <v>3192</v>
+      </c>
+      <c r="F120">
+        <v>0.13791315618924169</v>
       </c>
     </row>
   </sheetData>
@@ -4681,14 +5250,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4708,9 +5285,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44830.20833333334</v>
+        <v>44830.208333333343</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -4725,12 +5302,12 @@
         <v>45</v>
       </c>
       <c r="F2">
-        <v>0.08395522388059702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>8.3955223880597021E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44837.20833333334</v>
+        <v>44837.208333333343</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -4745,12 +5322,12 @@
         <v>397</v>
       </c>
       <c r="F3">
-        <v>0.2425167990226023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.24251679902260229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44844.20833333334</v>
+        <v>44844.208333333343</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -4765,12 +5342,12 @@
         <v>1203</v>
       </c>
       <c r="F4">
-        <v>0.2671552298467688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.26715522984676882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44851.20833333334</v>
+        <v>44851.208333333343</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -4785,12 +5362,12 @@
         <v>404</v>
       </c>
       <c r="F5">
-        <v>0.1429076759816059</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.14290767598160589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44858.20833333334</v>
+        <v>44858.208333333343</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -4805,12 +5382,12 @@
         <v>675</v>
       </c>
       <c r="F6">
-        <v>0.1923624964377315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.19236249643773151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44865.20833333334</v>
+        <v>44865.208333333343</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -4825,12 +5402,12 @@
         <v>482</v>
       </c>
       <c r="F7">
-        <v>0.2612466124661247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.26124661246612468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44872.20833333334</v>
+        <v>44872.208333333343</v>
       </c>
       <c r="B8">
         <v>11</v>
@@ -4848,9 +5425,9 @@
         <v>0.1492537313432836</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44879.20833333334</v>
+        <v>44879.208333333343</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -4868,9 +5445,9 @@
         <v>0.217673489765352</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44886.20833333334</v>
+        <v>44886.208333333343</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -4885,12 +5462,12 @@
         <v>176</v>
       </c>
       <c r="F10">
-        <v>0.1746031746031746</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.17460317460317459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44893.20833333334</v>
+        <v>44893.208333333343</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -4905,12 +5482,12 @@
         <v>272</v>
       </c>
       <c r="F11">
-        <v>0.2097147262914418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.20971472629144181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44900.20833333334</v>
+        <v>44900.208333333343</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -4925,12 +5502,12 @@
         <v>261</v>
       </c>
       <c r="F12">
-        <v>0.2134096484055601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.21340964840556009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44907.20833333334</v>
+        <v>44907.208333333343</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4948,9 +5525,9 @@
         <v>0.2220058422590068</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44914.20833333334</v>
+        <v>44914.208333333343</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -4965,12 +5542,12 @@
         <v>208</v>
       </c>
       <c r="F14">
-        <v>0.194392523364486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.19439252336448601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44921.20833333334</v>
+        <v>44921.208333333343</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -4985,12 +5562,12 @@
         <v>336</v>
       </c>
       <c r="F15">
-        <v>0.2237017310252996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.22370173102529961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44928.20833333334</v>
+        <v>44928.208333333343</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5005,12 +5582,12 @@
         <v>366</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44935.20833333334</v>
+        <v>44935.208333333343</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5025,12 +5602,12 @@
         <v>410</v>
       </c>
       <c r="F17">
-        <v>0.1876430205949657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.18764302059496571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44942.20833333334</v>
+        <v>44942.208333333343</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5045,12 +5622,12 @@
         <v>472</v>
       </c>
       <c r="F18">
-        <v>0.2520021356113187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.25200213561131868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44949.20833333334</v>
+        <v>44949.208333333343</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5068,9 +5645,9 @@
         <v>0.2093419706784862</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44956.20833333334</v>
+        <v>44956.208333333343</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5085,12 +5662,12 @@
         <v>515</v>
       </c>
       <c r="F20">
-        <v>0.2842163355408389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.28421633554083892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44963.20833333334</v>
+        <v>44963.208333333343</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -5105,12 +5682,12 @@
         <v>731</v>
       </c>
       <c r="F21">
-        <v>0.2914673046251994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.29146730462519937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44970.20833333334</v>
+        <v>44970.208333333343</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5125,12 +5702,12 @@
         <v>1660</v>
       </c>
       <c r="F22">
-        <v>0.4896755162241888</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.48967551622418881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44977.20833333334</v>
+        <v>44977.208333333343</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -5148,9 +5725,9 @@
         <v>0.1908419497784343</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44984.20833333334</v>
+        <v>44984.208333333343</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -5168,9 +5745,9 @@
         <v>0.2468227424749164</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44991.20833333334</v>
+        <v>44991.208333333343</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -5185,12 +5762,12 @@
         <v>922</v>
       </c>
       <c r="F25">
-        <v>0.1881248724750051</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.18812487247500509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44998.20833333334</v>
+        <v>44998.208333333343</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -5205,12 +5782,12 @@
         <v>819</v>
       </c>
       <c r="F26">
-        <v>0.2703862660944206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.27038626609442062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>45005.20833333334</v>
+        <v>45005.208333333343</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5225,12 +5802,12 @@
         <v>871</v>
       </c>
       <c r="F27">
-        <v>0.2943562014193984</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.29435620141939839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>45012.20833333334</v>
+        <v>45012.208333333343</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -5245,12 +5822,12 @@
         <v>1519</v>
       </c>
       <c r="F28">
-        <v>0.3975399110180581</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.39753991101805808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>45019.20833333334</v>
+        <v>45019.208333333343</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -5265,12 +5842,12 @@
         <v>2276</v>
       </c>
       <c r="F29">
-        <v>0.4763499372122227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.47634993721222268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>45026.20833333334</v>
+        <v>45026.208333333343</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -5285,12 +5862,12 @@
         <v>769</v>
       </c>
       <c r="F30">
-        <v>0.2237416351469305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.22374163514693049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>45033.20833333334</v>
+        <v>45033.208333333343</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -5305,12 +5882,12 @@
         <v>1253</v>
       </c>
       <c r="F31">
-        <v>0.3029497098646035</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.30294970986460351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>45040.20833333334</v>
+        <v>45040.208333333343</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -5328,9 +5905,9 @@
         <v>0.1989107269713474</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>45047.20833333334</v>
+        <v>45047.208333333343</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -5345,12 +5922,12 @@
         <v>902</v>
       </c>
       <c r="F33">
-        <v>0.2690128243364152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.26901282433641521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>45054.20833333334</v>
+        <v>45054.208333333343</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -5365,12 +5942,12 @@
         <v>454</v>
       </c>
       <c r="F34">
-        <v>0.2023172905525847</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.20231729055258471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>45061.20833333334</v>
+        <v>45061.208333333343</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -5385,12 +5962,12 @@
         <v>370</v>
       </c>
       <c r="F35">
-        <v>0.137546468401487</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.13754646840148699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>45068.20833333334</v>
+        <v>45068.208333333343</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -5405,12 +5982,12 @@
         <v>286</v>
       </c>
       <c r="F36">
-        <v>0.2215336948102246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.22153369481022461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>45075.20833333334</v>
+        <v>45075.208333333343</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -5428,9 +6005,9 @@
         <v>0.234095120444719</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>45082.20833333334</v>
+        <v>45082.208333333343</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -5448,9 +6025,9 @@
         <v>0.2113289760348584</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>45089.20833333334</v>
+        <v>45089.208333333343</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -5468,9 +6045,9 @@
         <v>0.1548966055403824</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>45096.20833333334</v>
+        <v>45096.208333333343</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -5485,12 +6062,12 @@
         <v>339</v>
       </c>
       <c r="F40">
-        <v>0.1910935738444194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.19109357384441941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>45103.20833333334</v>
+        <v>45103.208333333343</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -5508,9 +6085,9 @@
         <v>0.202914798206278</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>45110.20833333334</v>
+        <v>45110.208333333343</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -5525,12 +6102,12 @@
         <v>238</v>
       </c>
       <c r="F42">
-        <v>0.1613559322033898</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.16135593220338981</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>45117.20833333334</v>
+        <v>45117.208333333343</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -5545,12 +6122,12 @@
         <v>317</v>
       </c>
       <c r="F43">
-        <v>0.1676361713379164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.16763617133791639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>45124.20833333334</v>
+        <v>45124.208333333343</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -5565,12 +6142,12 @@
         <v>682</v>
       </c>
       <c r="F44">
-        <v>0.3192883895131086</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.31928838951310862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>45131.20833333334</v>
+        <v>45131.208333333343</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -5585,12 +6162,12 @@
         <v>1992</v>
       </c>
       <c r="F45">
-        <v>0.4474393530997305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.44743935309973049</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45138.20833333334</v>
+        <v>45138.208333333343</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -5605,12 +6182,12 @@
         <v>492</v>
       </c>
       <c r="F46">
-        <v>0.3315363881401617</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.33153638814016168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45145.20833333334</v>
+        <v>45145.208333333343</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -5625,12 +6202,12 @@
         <v>690</v>
       </c>
       <c r="F47">
-        <v>0.2823240589198036</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.28232405891980361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45152.20833333334</v>
+        <v>45152.208333333343</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -5645,12 +6222,12 @@
         <v>676</v>
       </c>
       <c r="F48">
-        <v>0.3141263940520446</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.31412639405204462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45159.20833333334</v>
+        <v>45159.208333333343</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -5665,12 +6242,12 @@
         <v>247</v>
       </c>
       <c r="F49">
-        <v>0.1760513186029936</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.17605131860299361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45166.20833333334</v>
+        <v>45166.208333333343</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -5685,12 +6262,12 @@
         <v>546</v>
       </c>
       <c r="F50">
-        <v>0.3178114086146682</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.31781140861466822</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45173.20833333334</v>
+        <v>45173.208333333343</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -5705,12 +6282,12 @@
         <v>2273</v>
       </c>
       <c r="F51">
-        <v>0.2023682336182336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.20236823361823361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45180.20833333334</v>
+        <v>45180.208333333343</v>
       </c>
       <c r="B52">
         <v>9</v>
@@ -5725,12 +6302,12 @@
         <v>1066</v>
       </c>
       <c r="F52">
-        <v>0.3034443495587817</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.30344434955878169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45187.20833333334</v>
+        <v>45187.208333333343</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -5745,12 +6322,12 @@
         <v>537</v>
       </c>
       <c r="F53">
-        <v>0.2620790629575402</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.26207906295754019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45194.20833333334</v>
+        <v>45194.208333333343</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -5765,12 +6342,12 @@
         <v>696</v>
       </c>
       <c r="F54">
-        <v>0.2155466088572313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.21554660885723129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>45201.20833333334</v>
+        <v>45201.208333333343</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -5788,9 +6365,9 @@
         <v>0.2436155913978495</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>45208.20833333334</v>
+        <v>45208.208333333343</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -5805,12 +6382,12 @@
         <v>291</v>
       </c>
       <c r="F56">
-        <v>0.1284201235657546</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.12842012356575461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>45215.20833333334</v>
+        <v>45215.208333333343</v>
       </c>
       <c r="B57">
         <v>10</v>
@@ -5825,12 +6402,12 @@
         <v>468</v>
       </c>
       <c r="F57">
-        <v>0.1399940173496859</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.13999401734968589</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>45222.20833333334</v>
+        <v>45222.208333333343</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -5845,12 +6422,12 @@
         <v>1099</v>
       </c>
       <c r="F58">
-        <v>0.3532626165220186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.35326261652201862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>45229.20833333334</v>
+        <v>45229.208333333343</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -5868,9 +6445,9 @@
         <v>0.3865349187740747</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>45236.20833333334</v>
+        <v>45236.208333333343</v>
       </c>
       <c r="B60">
         <v>11</v>
@@ -5885,12 +6462,12 @@
         <v>1264</v>
       </c>
       <c r="F60">
-        <v>0.2754412726084114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.27544127260841139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>45243.20833333334</v>
+        <v>45243.208333333343</v>
       </c>
       <c r="B61">
         <v>11</v>
@@ -5908,9 +6485,9 @@
         <v>0.1980392156862745</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>45250.20833333334</v>
+        <v>45250.208333333343</v>
       </c>
       <c r="B62">
         <v>11</v>
@@ -5925,12 +6502,12 @@
         <v>923</v>
       </c>
       <c r="F62">
-        <v>0.220760583592442</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.22076058359244199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>45257.20833333334</v>
+        <v>45257.208333333343</v>
       </c>
       <c r="B63">
         <v>11</v>
@@ -5945,12 +6522,12 @@
         <v>426</v>
       </c>
       <c r="F63">
-        <v>0.207501217730151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.20750121773015101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>45264.20833333334</v>
+        <v>45264.208333333343</v>
       </c>
       <c r="B64">
         <v>12</v>
@@ -5965,12 +6542,12 @@
         <v>1332</v>
       </c>
       <c r="F64">
-        <v>0.2883741069495562</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.28837410694955617</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>45271.20833333334</v>
+        <v>45271.208333333343</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -5985,12 +6562,12 @@
         <v>662</v>
       </c>
       <c r="F65">
-        <v>0.2773355676581483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.27733556765814832</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>45278.20833333334</v>
+        <v>45278.208333333343</v>
       </c>
       <c r="B66">
         <v>12</v>
@@ -6008,9 +6585,9 @@
         <v>0.3951473136915078</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>45285.20833333334</v>
+        <v>45285.208333333343</v>
       </c>
       <c r="B67">
         <v>12</v>
@@ -6025,12 +6602,12 @@
         <v>2434</v>
       </c>
       <c r="F67">
-        <v>0.5018556701030927</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.50185567010309273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>45292.20833333334</v>
+        <v>45292.208333333343</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -6045,12 +6622,12 @@
         <v>688</v>
       </c>
       <c r="F68">
-        <v>0.2789943227899432</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.27899432278994318</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>45299.20833333334</v>
+        <v>45299.208333333343</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -6065,12 +6642,12 @@
         <v>2029</v>
       </c>
       <c r="F69">
-        <v>0.3883253588516746</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.38832535885167457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>45306.20833333334</v>
+        <v>45306.208333333343</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -6085,12 +6662,12 @@
         <v>1073</v>
       </c>
       <c r="F70">
-        <v>0.2906283856988082</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.29062838569880822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>45313.20833333334</v>
+        <v>45313.208333333343</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -6105,12 +6682,12 @@
         <v>920</v>
       </c>
       <c r="F71">
-        <v>0.3070761014686249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.30707610146862491</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>45320.20833333334</v>
+        <v>45320.208333333343</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6125,12 +6702,12 @@
         <v>1790</v>
       </c>
       <c r="F72">
-        <v>0.3116837889604736</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.31168378896047361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>45327.20833333334</v>
+        <v>45327.208333333343</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -6145,12 +6722,12 @@
         <v>1330</v>
       </c>
       <c r="F73">
-        <v>0.27170582226762</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.27170582226762002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>45334.20833333334</v>
+        <v>45334.208333333343</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -6165,12 +6742,12 @@
         <v>819</v>
       </c>
       <c r="F74">
-        <v>0.2261181667586969</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.22611816675869689</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>45341.20833333334</v>
+        <v>45341.208333333343</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -6188,9 +6765,9 @@
         <v>0.3432487605715952</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>45348.20833333334</v>
+        <v>45348.208333333343</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -6205,12 +6782,12 @@
         <v>642</v>
       </c>
       <c r="F76">
-        <v>0.215508559919436</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.21550855991943599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>45355.20833333334</v>
+        <v>45355.208333333343</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -6225,12 +6802,12 @@
         <v>391</v>
       </c>
       <c r="F77">
-        <v>0.3005380476556495</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.30053804765564951</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>45362.20833333334</v>
+        <v>45362.208333333343</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -6245,12 +6822,12 @@
         <v>704</v>
       </c>
       <c r="F78">
-        <v>0.4274438372799029</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.42744383727990293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>45369.20833333334</v>
+        <v>45369.208333333343</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -6265,12 +6842,12 @@
         <v>327</v>
       </c>
       <c r="F79">
-        <v>0.1489071038251366</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.14890710382513661</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>45376.20833333334</v>
+        <v>45376.208333333343</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -6285,12 +6862,12 @@
         <v>387</v>
       </c>
       <c r="F80">
-        <v>0.1702595688517378</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.17025956885173779</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>45383.20833333334</v>
+        <v>45383.208333333343</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -6305,12 +6882,12 @@
         <v>775</v>
       </c>
       <c r="F81">
-        <v>0.2770825884876654</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.27708258848766543</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>45390.20833333334</v>
+        <v>45390.208333333343</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -6325,12 +6902,12 @@
         <v>646</v>
       </c>
       <c r="F82">
-        <v>0.222605099931082</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.22260509993108199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>45397.20833333334</v>
+        <v>45397.208333333343</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -6345,12 +6922,12 @@
         <v>1194</v>
       </c>
       <c r="F83">
-        <v>0.2863996162149197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.28639961621491972</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>45404.20833333334</v>
+        <v>45404.208333333343</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -6368,9 +6945,9 @@
         <v>0.1112136594370097</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>45411.20833333334</v>
+        <v>45411.208333333343</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -6385,12 +6962,12 @@
         <v>295</v>
       </c>
       <c r="F85">
-        <v>0.2274479568234387</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.22744795682343871</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>45418.20833333334</v>
+        <v>45418.208333333343</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -6408,9 +6985,9 @@
         <v>0.2166666666666667</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>45425.20833333334</v>
+        <v>45425.208333333343</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -6425,12 +7002,12 @@
         <v>307</v>
       </c>
       <c r="F87">
-        <v>0.2234352256186317</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.22343522561863169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>45432.20833333334</v>
+        <v>45432.208333333343</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -6445,12 +7022,12 @@
         <v>522</v>
       </c>
       <c r="F88">
-        <v>0.3090586145648312</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.30905861456483119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>45439.20833333334</v>
+        <v>45439.208333333343</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -6465,12 +7042,12 @@
         <v>260</v>
       </c>
       <c r="F89">
-        <v>0.2083333333333333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.20833333333333329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>45446.20833333334</v>
+        <v>45446.208333333343</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -6485,12 +7062,12 @@
         <v>627</v>
       </c>
       <c r="F90">
-        <v>0.3396533044420368</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.33965330444203679</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>45453.20833333334</v>
+        <v>45453.208333333343</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -6505,12 +7082,12 @@
         <v>705</v>
       </c>
       <c r="F91">
-        <v>0.362095531587057</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.36209553158705698</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>45460.20833333334</v>
+        <v>45460.208333333343</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -6525,12 +7102,12 @@
         <v>1137</v>
       </c>
       <c r="F92">
-        <v>0.250882612533098</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.25088261253309802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>45467.20833333334</v>
+        <v>45467.208333333343</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -6545,12 +7122,12 @@
         <v>839</v>
       </c>
       <c r="F93">
-        <v>0.1783967680204125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.17839676802041249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>45474.20833333334</v>
+        <v>45474.208333333343</v>
       </c>
       <c r="B94">
         <v>7</v>
@@ -6565,12 +7142,12 @@
         <v>952</v>
       </c>
       <c r="F94">
-        <v>0.2378810594702649</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.23788105947026489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>45481.20833333334</v>
+        <v>45481.208333333343</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -6585,12 +7162,12 @@
         <v>455</v>
       </c>
       <c r="F95">
-        <v>0.2118249534450652</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.21182495344506519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>45488.20833333334</v>
+        <v>45488.208333333343</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -6605,12 +7182,12 @@
         <v>652</v>
       </c>
       <c r="F96">
-        <v>0.2244406196213425</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>0.22444061962134251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>45495.20833333334</v>
+        <v>45495.208333333343</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -6625,12 +7202,12 @@
         <v>1190</v>
       </c>
       <c r="F97">
-        <v>0.0567937765475111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>5.6793776547511103E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>45502.20833333334</v>
+        <v>45502.208333333343</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -6645,12 +7222,12 @@
         <v>2549</v>
       </c>
       <c r="F98">
-        <v>0.05625689693224454</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>5.6256896932244539E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>45509.20833333334</v>
+        <v>45509.208333333343</v>
       </c>
       <c r="B99">
         <v>8</v>
@@ -6665,12 +7242,12 @@
         <v>1081</v>
       </c>
       <c r="F99">
-        <v>0.09251176722293539</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>9.2511767222935387E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>45516.20833333334</v>
+        <v>45516.208333333343</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -6685,12 +7262,12 @@
         <v>982</v>
       </c>
       <c r="F100">
-        <v>0.07421963570402842</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>7.4219635704028425E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>45523.20833333334</v>
+        <v>45523.208333333343</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -6705,12 +7282,12 @@
         <v>661</v>
       </c>
       <c r="F101">
-        <v>0.126458771762005</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.12645877176200501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>45530.20833333334</v>
+        <v>45530.208333333343</v>
       </c>
       <c r="B102">
         <v>8</v>
@@ -6728,9 +7305,9 @@
         <v>0.1728934817170111</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>45537.20833333334</v>
+        <v>45537.208333333343</v>
       </c>
       <c r="B103">
         <v>9</v>
@@ -6748,9 +7325,9 @@
         <v>0.105359477124183</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>45544.20833333334</v>
+        <v>45544.208333333343</v>
       </c>
       <c r="B104">
         <v>9</v>
@@ -6768,9 +7345,9 @@
         <v>0.1212035995500562</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>45551.20833333334</v>
+        <v>45551.208333333343</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -6785,12 +7362,12 @@
         <v>687</v>
       </c>
       <c r="F105">
-        <v>0.164985590778098</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>0.16498559077809799</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>45558.20833333334</v>
+        <v>45558.208333333343</v>
       </c>
       <c r="B106">
         <v>9</v>
@@ -6808,9 +7385,9 @@
         <v>0.1198169859879897</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>45565.20833333334</v>
+        <v>45565.208333333343</v>
       </c>
       <c r="B107">
         <v>9</v>
@@ -6819,13 +7396,273 @@
         <v>2024</v>
       </c>
       <c r="D107">
-        <v>619</v>
+        <v>3834</v>
       </c>
       <c r="E107">
-        <v>171</v>
+        <v>687</v>
       </c>
       <c r="F107">
-        <v>0.2762520193861066</v>
+        <v>0.17918622848200311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>45572.208333333343</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>2024</v>
+      </c>
+      <c r="D108">
+        <v>4075</v>
+      </c>
+      <c r="E108">
+        <v>582</v>
+      </c>
+      <c r="F108">
+        <v>0.14282208588957049</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>45579.208333333343</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>2024</v>
+      </c>
+      <c r="D109">
+        <v>3675</v>
+      </c>
+      <c r="E109">
+        <v>533</v>
+      </c>
+      <c r="F109">
+        <v>0.14503401360544221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>45586.208333333343</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>2024</v>
+      </c>
+      <c r="D110">
+        <v>3845</v>
+      </c>
+      <c r="E110">
+        <v>501</v>
+      </c>
+      <c r="F110">
+        <v>0.13029908972691809</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>45593.208333333343</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>2024</v>
+      </c>
+      <c r="D111">
+        <v>3437</v>
+      </c>
+      <c r="E111">
+        <v>811</v>
+      </c>
+      <c r="F111">
+        <v>0.23596159441373291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>45600.208333333343</v>
+      </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>2024</v>
+      </c>
+      <c r="D112">
+        <v>3650</v>
+      </c>
+      <c r="E112">
+        <v>488</v>
+      </c>
+      <c r="F112">
+        <v>0.1336986301369863</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>45607.208333333343</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>2024</v>
+      </c>
+      <c r="D113">
+        <v>4790</v>
+      </c>
+      <c r="E113">
+        <v>589</v>
+      </c>
+      <c r="F113">
+        <v>0.122964509394572</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>45614.208333333343</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>2024</v>
+      </c>
+      <c r="D114">
+        <v>4825</v>
+      </c>
+      <c r="E114">
+        <v>481</v>
+      </c>
+      <c r="F114">
+        <v>9.9689119170984455E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>45621.208333333343</v>
+      </c>
+      <c r="B115">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>2024</v>
+      </c>
+      <c r="D115">
+        <v>5807</v>
+      </c>
+      <c r="E115">
+        <v>799</v>
+      </c>
+      <c r="F115">
+        <v>0.13759256070260029</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>45628.208333333343</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>2024</v>
+      </c>
+      <c r="D116">
+        <v>4942</v>
+      </c>
+      <c r="E116">
+        <v>804</v>
+      </c>
+      <c r="F116">
+        <v>0.16268717118575479</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>45635.208333333343</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>2024</v>
+      </c>
+      <c r="D117">
+        <v>4602</v>
+      </c>
+      <c r="E117">
+        <v>853</v>
+      </c>
+      <c r="F117">
+        <v>0.18535419382877011</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>45642.208333333343</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>2024</v>
+      </c>
+      <c r="D118">
+        <v>5037</v>
+      </c>
+      <c r="E118">
+        <v>442</v>
+      </c>
+      <c r="F118">
+        <v>8.7750645225332533E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>45649.208333333343</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>2024</v>
+      </c>
+      <c r="D119">
+        <v>4457</v>
+      </c>
+      <c r="E119">
+        <v>884</v>
+      </c>
+      <c r="F119">
+        <v>0.19833969037469151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>45656.208333333343</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>2024</v>
+      </c>
+      <c r="D120">
+        <v>5588</v>
+      </c>
+      <c r="E120">
+        <v>921</v>
+      </c>
+      <c r="F120">
+        <v>0.16481746599856839</v>
       </c>
     </row>
   </sheetData>
@@ -6834,14 +7671,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6861,9 +7703,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44830.20833333334</v>
+        <v>44830.208333333343</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -6878,12 +7720,12 @@
         <v>194</v>
       </c>
       <c r="F2">
-        <v>0.1330589849108368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.13305898491083679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44837.20833333334</v>
+        <v>44837.208333333343</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -6898,12 +7740,12 @@
         <v>575</v>
       </c>
       <c r="F3">
-        <v>0.1239758516601984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.12397585166019839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44844.20833333334</v>
+        <v>44844.208333333343</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -6918,12 +7760,12 @@
         <v>1109</v>
       </c>
       <c r="F4">
-        <v>0.1763676844783715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.17636768447837151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44851.20833333334</v>
+        <v>44851.208333333343</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -6941,9 +7783,9 @@
         <v>0.1327619047619048</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44858.20833333334</v>
+        <v>44858.208333333343</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -6961,9 +7803,9 @@
         <v>0.1176365901405944</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44865.20833333334</v>
+        <v>44865.208333333343</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -6978,12 +7820,12 @@
         <v>1206</v>
       </c>
       <c r="F7">
-        <v>0.1912767644726407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.19127676447264069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44872.20833333334</v>
+        <v>44872.208333333343</v>
       </c>
       <c r="B8">
         <v>11</v>
@@ -6998,12 +7840,12 @@
         <v>563</v>
       </c>
       <c r="F8">
-        <v>0.107565915170042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.10756591517004201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44879.20833333334</v>
+        <v>44879.208333333343</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -7021,9 +7863,9 @@
         <v>0.1092022116903633</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44886.20833333334</v>
+        <v>44886.208333333343</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -7038,12 +7880,12 @@
         <v>745</v>
       </c>
       <c r="F10">
-        <v>0.1524764633647155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.15247646336471549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44893.20833333334</v>
+        <v>44893.208333333343</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -7061,9 +7903,9 @@
         <v>0.1216242854326828</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44900.20833333334</v>
+        <v>44900.208333333343</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -7078,12 +7920,12 @@
         <v>617</v>
       </c>
       <c r="F12">
-        <v>0.1104151753758053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.11041517537580529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44907.20833333334</v>
+        <v>44907.208333333343</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -7101,9 +7943,9 @@
         <v>0.1495086193007894</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44914.20833333334</v>
+        <v>44914.208333333343</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -7118,12 +7960,12 @@
         <v>710</v>
       </c>
       <c r="F14">
-        <v>0.1390520955738347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.13905209557383469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44921.20833333334</v>
+        <v>44921.208333333343</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -7138,12 +7980,12 @@
         <v>905</v>
       </c>
       <c r="F15">
-        <v>0.1928404005966333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.19284040059663329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44928.20833333334</v>
+        <v>44928.208333333343</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7158,12 +8000,12 @@
         <v>1006</v>
       </c>
       <c r="F16">
-        <v>0.1476155539251651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.14761555392516509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44935.20833333334</v>
+        <v>44935.208333333343</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7178,12 +8020,12 @@
         <v>1466</v>
       </c>
       <c r="F17">
-        <v>0.1296656642490713</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.12966566424907131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44942.20833333334</v>
+        <v>44942.208333333343</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7198,12 +8040,12 @@
         <v>1130</v>
       </c>
       <c r="F18">
-        <v>0.09860383944153578</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>9.8603839441535779E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44949.20833333334</v>
+        <v>44949.208333333343</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7221,9 +8063,9 @@
         <v>0.1240222053999495</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44956.20833333334</v>
+        <v>44956.208333333343</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7238,12 +8080,12 @@
         <v>1006</v>
       </c>
       <c r="F20">
-        <v>0.1011360209108274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.10113602091082741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44963.20833333334</v>
+        <v>44963.208333333343</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -7261,9 +8103,9 @@
         <v>0.1190157144597393</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44970.20833333334</v>
+        <v>44970.208333333343</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -7278,12 +8120,12 @@
         <v>982</v>
       </c>
       <c r="F22">
-        <v>0.1326130992572586</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.13261309925725859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44977.20833333334</v>
+        <v>44977.208333333343</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -7298,12 +8140,12 @@
         <v>650</v>
       </c>
       <c r="F23">
-        <v>0.1077050538525269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.10770505385252691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44984.20833333334</v>
+        <v>44984.208333333343</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -7321,9 +8163,9 @@
         <v>0.131337088645123</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44991.20833333334</v>
+        <v>44991.208333333343</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -7341,9 +8183,9 @@
         <v>0.10921912624699</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44998.20833333334</v>
+        <v>44998.208333333343</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -7358,12 +8200,12 @@
         <v>578</v>
       </c>
       <c r="F26">
-        <v>0.09967235730298327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>9.9672357302983267E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>45005.20833333334</v>
+        <v>45005.208333333343</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -7378,12 +8220,12 @@
         <v>1255</v>
       </c>
       <c r="F27">
-        <v>0.1479255068363979</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.14792550683639791</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>45012.20833333334</v>
+        <v>45012.208333333343</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -7398,12 +8240,12 @@
         <v>1271</v>
       </c>
       <c r="F28">
-        <v>0.1415682780129205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.14156827801292049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>45019.20833333334</v>
+        <v>45019.208333333343</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -7418,12 +8260,12 @@
         <v>2346</v>
       </c>
       <c r="F29">
-        <v>0.243058433485288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.24305843348528799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>45026.20833333334</v>
+        <v>45026.208333333343</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -7438,12 +8280,12 @@
         <v>3957</v>
       </c>
       <c r="F30">
-        <v>0.2462505445267285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.24625054452672851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>45033.20833333334</v>
+        <v>45033.208333333343</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -7458,12 +8300,12 @@
         <v>5594</v>
       </c>
       <c r="F31">
-        <v>0.2712636989622733</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.27126369896227331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>45040.20833333334</v>
+        <v>45040.208333333343</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -7481,9 +8323,9 @@
         <v>0.1654656788118678</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>45047.20833333334</v>
+        <v>45047.208333333343</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -7501,9 +8343,9 @@
         <v>0.1482397716460514</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>45054.20833333334</v>
+        <v>45054.208333333343</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -7518,12 +8360,12 @@
         <v>1395</v>
       </c>
       <c r="F34">
-        <v>0.1367781155015197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.13677811550151969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>45061.20833333334</v>
+        <v>45061.208333333343</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -7538,12 +8380,12 @@
         <v>1530</v>
       </c>
       <c r="F35">
-        <v>0.187133072407045</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.18713307240704499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>45068.20833333334</v>
+        <v>45068.208333333343</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -7561,9 +8403,9 @@
         <v>0.1182857142857143</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>45075.20833333334</v>
+        <v>45075.208333333343</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -7578,12 +8420,12 @@
         <v>1094</v>
       </c>
       <c r="F37">
-        <v>0.1427266797129811</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0.14272667971298111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>45082.20833333334</v>
+        <v>45082.208333333343</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -7598,12 +8440,12 @@
         <v>1366</v>
       </c>
       <c r="F38">
-        <v>0.1679577031845567</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.16795770318455669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>45089.20833333334</v>
+        <v>45089.208333333343</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -7618,12 +8460,12 @@
         <v>1455</v>
       </c>
       <c r="F39">
-        <v>0.1899725812769291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.18997258127692909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>45096.20833333334</v>
+        <v>45096.208333333343</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -7641,9 +8483,9 @@
         <v>0.1445468939182267</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>45103.20833333334</v>
+        <v>45103.208333333343</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -7661,9 +8503,9 @@
         <v>0.1151341207638812</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>45110.20833333334</v>
+        <v>45110.208333333343</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -7681,9 +8523,9 @@
         <v>0.1411084665079905</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>45117.20833333334</v>
+        <v>45117.208333333343</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -7701,9 +8543,9 @@
         <v>0.1635644144804338</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>45124.20833333334</v>
+        <v>45124.208333333343</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -7721,9 +8563,9 @@
         <v>0.1456605859590934</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>45131.20833333334</v>
+        <v>45131.208333333343</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -7741,9 +8583,9 @@
         <v>0.1769285208775655</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45138.20833333334</v>
+        <v>45138.208333333343</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -7761,9 +8603,9 @@
         <v>0.127758558988429</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45145.20833333334</v>
+        <v>45145.208333333343</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -7778,12 +8620,12 @@
         <v>1262</v>
       </c>
       <c r="F47">
-        <v>0.1954165376277485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.19541653762774849</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45152.20833333334</v>
+        <v>45152.208333333343</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -7801,9 +8643,9 @@
         <v>0.1836791923724061</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45159.20833333334</v>
+        <v>45159.208333333343</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -7818,12 +8660,12 @@
         <v>1221</v>
       </c>
       <c r="F49">
-        <v>0.1969354838709677</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.19693548387096771</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45166.20833333334</v>
+        <v>45166.208333333343</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -7841,9 +8683,9 @@
         <v>0.1471100278551532</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45173.20833333334</v>
+        <v>45173.208333333343</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -7861,9 +8703,9 @@
         <v>0.1437834332955098</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45180.20833333334</v>
+        <v>45180.208333333343</v>
       </c>
       <c r="B52">
         <v>9</v>
@@ -7878,12 +8720,12 @@
         <v>874</v>
       </c>
       <c r="F52">
-        <v>0.1499914192551914</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.14999141925519141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45187.20833333334</v>
+        <v>45187.208333333343</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -7898,12 +8740,12 @@
         <v>1484</v>
       </c>
       <c r="F53">
-        <v>0.1652193275439768</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.16521932754397681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45194.20833333334</v>
+        <v>45194.208333333343</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -7918,12 +8760,12 @@
         <v>1339</v>
       </c>
       <c r="F54">
-        <v>0.1588940310905423</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.15889403109054229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>45201.20833333334</v>
+        <v>45201.208333333343</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -7938,12 +8780,12 @@
         <v>1290</v>
       </c>
       <c r="F55">
-        <v>0.1390385859021341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.13903858590213411</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>45208.20833333334</v>
+        <v>45208.208333333343</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -7958,12 +8800,12 @@
         <v>1293</v>
       </c>
       <c r="F56">
-        <v>0.1708509513742072</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.17085095137420719</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>45215.20833333334</v>
+        <v>45215.208333333343</v>
       </c>
       <c r="B57">
         <v>10</v>
@@ -7981,9 +8823,9 @@
         <v>0.1296464188576609</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>45222.20833333334</v>
+        <v>45222.208333333343</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -8001,9 +8843,9 @@
         <v>0.1078141991610999</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>45229.20833333334</v>
+        <v>45229.208333333343</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -8018,12 +8860,12 @@
         <v>4514</v>
       </c>
       <c r="F59">
-        <v>0.2029950083194675</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.20299500831946751</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>45236.20833333334</v>
+        <v>45236.208333333343</v>
       </c>
       <c r="B60">
         <v>11</v>
@@ -8038,12 +8880,12 @@
         <v>1636</v>
       </c>
       <c r="F60">
-        <v>0.1362879040319893</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.13628790403198929</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>45243.20833333334</v>
+        <v>45243.208333333343</v>
       </c>
       <c r="B61">
         <v>11</v>
@@ -8058,12 +8900,12 @@
         <v>2086</v>
       </c>
       <c r="F61">
-        <v>0.1749266247379455</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.17492662473794551</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>45250.20833333334</v>
+        <v>45250.208333333343</v>
       </c>
       <c r="B62">
         <v>11</v>
@@ -8078,12 +8920,12 @@
         <v>10645</v>
       </c>
       <c r="F62">
-        <v>0.2832548362204305</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.28325483622043052</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>45257.20833333334</v>
+        <v>45257.208333333343</v>
       </c>
       <c r="B63">
         <v>11</v>
@@ -8098,12 +8940,12 @@
         <v>1572</v>
       </c>
       <c r="F63">
-        <v>0.1874329319184452</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.18743293191844521</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>45264.20833333334</v>
+        <v>45264.208333333343</v>
       </c>
       <c r="B64">
         <v>12</v>
@@ -8121,9 +8963,9 @@
         <v>0.1672910200149845</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>45271.20833333334</v>
+        <v>45271.208333333343</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -8138,12 +8980,12 @@
         <v>1450</v>
       </c>
       <c r="F65">
-        <v>0.1310675223718702</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.13106752237187019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>45278.20833333334</v>
+        <v>45278.208333333343</v>
       </c>
       <c r="B66">
         <v>12</v>
@@ -8158,12 +9000,12 @@
         <v>1305</v>
       </c>
       <c r="F66">
-        <v>0.1633700550826239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.16337005508262389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>45285.20833333334</v>
+        <v>45285.208333333343</v>
       </c>
       <c r="B67">
         <v>12</v>
@@ -8178,12 +9020,12 @@
         <v>2538</v>
       </c>
       <c r="F67">
-        <v>0.2774376912986445</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.27743769129864448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>45292.20833333334</v>
+        <v>45292.208333333343</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8198,12 +9040,12 @@
         <v>1007</v>
       </c>
       <c r="F68">
-        <v>0.1706201287699085</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.17062012876990851</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>45299.20833333334</v>
+        <v>45299.208333333343</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8218,12 +9060,12 @@
         <v>1568</v>
       </c>
       <c r="F69">
-        <v>0.1635548138103682</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.16355481381036821</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>45306.20833333334</v>
+        <v>45306.208333333343</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8238,12 +9080,12 @@
         <v>1458</v>
       </c>
       <c r="F70">
-        <v>0.1934456680376808</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.19344566803768079</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>45313.20833333334</v>
+        <v>45313.208333333343</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8258,12 +9100,12 @@
         <v>1545</v>
       </c>
       <c r="F71">
-        <v>0.1941686565288425</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.19416865652884249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>45320.20833333334</v>
+        <v>45320.208333333343</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8278,12 +9120,12 @@
         <v>1359</v>
       </c>
       <c r="F72">
-        <v>0.1621718377088305</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.16217183770883051</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>45327.20833333334</v>
+        <v>45327.208333333343</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -8298,12 +9140,12 @@
         <v>1310</v>
       </c>
       <c r="F73">
-        <v>0.1550295857988166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.15502958579881659</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>45334.20833333334</v>
+        <v>45334.208333333343</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -8321,9 +9163,9 @@
         <v>0.1360420823508072</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>45341.20833333334</v>
+        <v>45341.208333333343</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -8338,12 +9180,12 @@
         <v>1926</v>
       </c>
       <c r="F75">
-        <v>0.2152676874930144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.21526768749301439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>45348.20833333334</v>
+        <v>45348.208333333343</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -8358,12 +9200,12 @@
         <v>2053</v>
       </c>
       <c r="F76">
-        <v>0.2607977642276423</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.26079776422764228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>45355.20833333334</v>
+        <v>45355.208333333343</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -8381,9 +9223,9 @@
         <v>0.1937697269109373</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>45362.20833333334</v>
+        <v>45362.208333333343</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -8398,12 +9240,12 @@
         <v>1345</v>
       </c>
       <c r="F78">
-        <v>0.2064783543137857</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.20647835431378569</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>45369.20833333334</v>
+        <v>45369.208333333343</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -8421,9 +9263,9 @@
         <v>0.2301841473178543</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>45376.20833333334</v>
+        <v>45376.208333333343</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -8441,9 +9283,9 @@
         <v>0.1680545041635125</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>45383.20833333334</v>
+        <v>45383.208333333343</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -8458,12 +9300,12 @@
         <v>884</v>
       </c>
       <c r="F81">
-        <v>0.1459468383688295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.14594683836882949</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>45390.20833333334</v>
+        <v>45390.208333333343</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -8478,12 +9320,12 @@
         <v>1109</v>
       </c>
       <c r="F82">
-        <v>0.1461710821141426</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.14617108211414259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>45397.20833333334</v>
+        <v>45397.208333333343</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -8498,12 +9340,12 @@
         <v>748</v>
       </c>
       <c r="F83">
-        <v>0.127081209650017</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.12708120965001701</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>45404.20833333334</v>
+        <v>45404.208333333343</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -8521,9 +9363,9 @@
         <v>0.1200773558368495</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>45411.20833333334</v>
+        <v>45411.208333333343</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -8538,12 +9380,12 @@
         <v>861</v>
       </c>
       <c r="F85">
-        <v>0.1376939069246761</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.13769390692467609</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>45418.20833333334</v>
+        <v>45418.208333333343</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -8561,9 +9403,9 @@
         <v>0.1906821309219579</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>45425.20833333334</v>
+        <v>45425.208333333343</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -8581,9 +9423,9 @@
         <v>0.1284479893652376</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>45432.20833333334</v>
+        <v>45432.208333333343</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -8598,12 +9440,12 @@
         <v>785</v>
       </c>
       <c r="F88">
-        <v>0.141492429704398</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.14149242970439799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>45439.20833333334</v>
+        <v>45439.208333333343</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -8618,12 +9460,12 @@
         <v>771</v>
       </c>
       <c r="F89">
-        <v>0.1498251068791294</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.14982510687912939</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>45446.20833333334</v>
+        <v>45446.208333333343</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -8641,9 +9483,9 @@
         <v>0.1495480690221857</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>45453.20833333334</v>
+        <v>45453.208333333343</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -8661,9 +9503,9 @@
         <v>0.1548858163740873</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>45460.20833333334</v>
+        <v>45460.208333333343</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -8681,9 +9523,9 @@
         <v>0.1909711448960596</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>45467.20833333334</v>
+        <v>45467.208333333343</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -8701,9 +9543,9 @@
         <v>0.1320922974027422</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>45474.20833333334</v>
+        <v>45474.208333333343</v>
       </c>
       <c r="B94">
         <v>7</v>
@@ -8718,12 +9560,12 @@
         <v>1545</v>
       </c>
       <c r="F94">
-        <v>0.2004931222424085</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.20049312224240851</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>45481.20833333334</v>
+        <v>45481.208333333343</v>
       </c>
       <c r="B95">
         <v>7</v>
@@ -8741,9 +9583,9 @@
         <v>0.115237815619495</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>45488.20833333334</v>
+        <v>45488.208333333343</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -8758,12 +9600,12 @@
         <v>837</v>
       </c>
       <c r="F96">
-        <v>0.1273972602739726</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>0.12739726027397261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>45495.20833333334</v>
+        <v>45495.208333333343</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -8778,12 +9620,12 @@
         <v>1362</v>
       </c>
       <c r="F97">
-        <v>0.0775626423690205</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>7.7562642369020496E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>45502.20833333334</v>
+        <v>45502.208333333343</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -8798,12 +9640,12 @@
         <v>3200</v>
       </c>
       <c r="F98">
-        <v>0.05616005616005616</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>5.6160056160056163E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>45509.20833333334</v>
+        <v>45509.208333333343</v>
       </c>
       <c r="B99">
         <v>8</v>
@@ -8818,12 +9660,12 @@
         <v>1573</v>
       </c>
       <c r="F99">
-        <v>0.09524674538298517</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>9.5246745382985165E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>45516.20833333334</v>
+        <v>45516.208333333343</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -8838,12 +9680,12 @@
         <v>1422</v>
       </c>
       <c r="F100">
-        <v>0.07698137721957557</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>7.698137721957557E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>45523.20833333334</v>
+        <v>45523.208333333343</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -8858,12 +9700,12 @@
         <v>1151</v>
       </c>
       <c r="F101">
-        <v>0.09994789857589441</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>9.9947898575894409E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>45530.20833333334</v>
+        <v>45530.208333333343</v>
       </c>
       <c r="B102">
         <v>8</v>
@@ -8881,9 +9723,9 @@
         <v>0.1089459698848538</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>45537.20833333334</v>
+        <v>45537.208333333343</v>
       </c>
       <c r="B103">
         <v>9</v>
@@ -8901,9 +9743,9 @@
         <v>0.134393063583815</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>45544.20833333334</v>
+        <v>45544.208333333343</v>
       </c>
       <c r="B104">
         <v>9</v>
@@ -8921,9 +9763,9 @@
         <v>0.1096284918882596</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>45551.20833333334</v>
+        <v>45551.208333333343</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -8938,12 +9780,12 @@
         <v>1356</v>
       </c>
       <c r="F105">
-        <v>0.1448253764818968</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>0.14482537648189681</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>45558.20833333334</v>
+        <v>45558.208333333343</v>
       </c>
       <c r="B106">
         <v>9</v>
@@ -8958,12 +9800,12 @@
         <v>2382</v>
       </c>
       <c r="F106">
-        <v>0.1747102831157401</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>0.17471028311574011</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>45565.20833333334</v>
+        <v>45565.208333333343</v>
       </c>
       <c r="B107">
         <v>9</v>
@@ -8972,13 +9814,273 @@
         <v>2024</v>
       </c>
       <c r="D107">
-        <v>2105</v>
+        <v>9805</v>
       </c>
       <c r="E107">
-        <v>622</v>
+        <v>2561</v>
       </c>
       <c r="F107">
-        <v>0.2954869358669834</v>
+        <v>0.26119326874043858</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>45572.208333333343</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>2024</v>
+      </c>
+      <c r="D108">
+        <v>8531</v>
+      </c>
+      <c r="E108">
+        <v>2372</v>
+      </c>
+      <c r="F108">
+        <v>0.27804477786894849</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>45579.208333333343</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>2024</v>
+      </c>
+      <c r="D109">
+        <v>8801</v>
+      </c>
+      <c r="E109">
+        <v>1828</v>
+      </c>
+      <c r="F109">
+        <v>0.20770367003749571</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>45586.208333333343</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>2024</v>
+      </c>
+      <c r="D110">
+        <v>8071</v>
+      </c>
+      <c r="E110">
+        <v>1486</v>
+      </c>
+      <c r="F110">
+        <v>0.18411597075950939</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>45593.208333333343</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>2024</v>
+      </c>
+      <c r="D111">
+        <v>6663</v>
+      </c>
+      <c r="E111">
+        <v>827</v>
+      </c>
+      <c r="F111">
+        <v>0.12411826504577519</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>45600.208333333343</v>
+      </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
+      <c r="C112">
+        <v>2024</v>
+      </c>
+      <c r="D112">
+        <v>6747</v>
+      </c>
+      <c r="E112">
+        <v>908</v>
+      </c>
+      <c r="F112">
+        <v>0.13457833111012299</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>45607.208333333343</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>2024</v>
+      </c>
+      <c r="D113">
+        <v>5316</v>
+      </c>
+      <c r="E113">
+        <v>734</v>
+      </c>
+      <c r="F113">
+        <v>0.13807373965387509</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>45614.208333333343</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>2024</v>
+      </c>
+      <c r="D114">
+        <v>8050</v>
+      </c>
+      <c r="E114">
+        <v>1173</v>
+      </c>
+      <c r="F114">
+        <v>0.14571428571428571</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>45621.208333333343</v>
+      </c>
+      <c r="B115">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>2024</v>
+      </c>
+      <c r="D115">
+        <v>15677</v>
+      </c>
+      <c r="E115">
+        <v>6151</v>
+      </c>
+      <c r="F115">
+        <v>0.39235823180455442</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>45628.208333333343</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>2024</v>
+      </c>
+      <c r="D116">
+        <v>9849</v>
+      </c>
+      <c r="E116">
+        <v>2133</v>
+      </c>
+      <c r="F116">
+        <v>0.21657021017362171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>45635.208333333343</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>2024</v>
+      </c>
+      <c r="D117">
+        <v>9886</v>
+      </c>
+      <c r="E117">
+        <v>1819</v>
+      </c>
+      <c r="F117">
+        <v>0.18399757232449929</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>45642.208333333343</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>2024</v>
+      </c>
+      <c r="D118">
+        <v>7170</v>
+      </c>
+      <c r="E118">
+        <v>1164</v>
+      </c>
+      <c r="F118">
+        <v>0.16234309623430959</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>45649.208333333343</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>2024</v>
+      </c>
+      <c r="D119">
+        <v>5816</v>
+      </c>
+      <c r="E119">
+        <v>1082</v>
+      </c>
+      <c r="F119">
+        <v>0.18603851444291611</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>45656.208333333343</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>2024</v>
+      </c>
+      <c r="D120">
+        <v>1764</v>
+      </c>
+      <c r="E120">
+        <v>411</v>
+      </c>
+      <c r="F120">
+        <v>0.2329931972789116</v>
       </c>
     </row>
   </sheetData>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/xenofobia_hub.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/xenofobia_hub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealonsoordinolaaucca/Documents/Documentos Barometro Xenofobia/BX-Hub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2ECA7D-1249-2D49-ADEA-8E76127347D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E42B330-352A-4844-B338-2B1F83633D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="14160" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="35520" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colombia" sheetId="1" r:id="rId1"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2835,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/xenofobia_hub.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/xenofobia_hub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E42B330-352A-4844-B338-2B1F83633D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C88EB5-C555-634A-ABB6-F551443502FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="35520" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="17700" windowHeight="19800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colombia" sheetId="1" r:id="rId1"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2826,6 +2826,266 @@
         <v>0.20580700256191289</v>
       </c>
     </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>45663.208333333343</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>2025</v>
+      </c>
+      <c r="D121">
+        <v>13018</v>
+      </c>
+      <c r="E121">
+        <v>2159</v>
+      </c>
+      <c r="F121">
+        <v>0.1658472883699493</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>45670.208333333343</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>2025</v>
+      </c>
+      <c r="D122">
+        <v>5643</v>
+      </c>
+      <c r="E122">
+        <v>988</v>
+      </c>
+      <c r="F122">
+        <v>0.17508417508417509</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>45677.208333333343</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>2025</v>
+      </c>
+      <c r="D123">
+        <v>12622</v>
+      </c>
+      <c r="E123">
+        <v>1690</v>
+      </c>
+      <c r="F123">
+        <v>0.13389320234511171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>45684.208333333343</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>2025</v>
+      </c>
+      <c r="D124">
+        <v>14767</v>
+      </c>
+      <c r="E124">
+        <v>1987</v>
+      </c>
+      <c r="F124">
+        <v>0.13455678201394999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>45691.208333333343</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>2025</v>
+      </c>
+      <c r="D125">
+        <v>5646</v>
+      </c>
+      <c r="E125">
+        <v>879</v>
+      </c>
+      <c r="F125">
+        <v>0.1556854410201913</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>45698.208333333343</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>2025</v>
+      </c>
+      <c r="D126">
+        <v>4281</v>
+      </c>
+      <c r="E126">
+        <v>774</v>
+      </c>
+      <c r="F126">
+        <v>0.1807988787666433</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>45705.208333333343</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>2025</v>
+      </c>
+      <c r="D127">
+        <v>3704</v>
+      </c>
+      <c r="E127">
+        <v>566</v>
+      </c>
+      <c r="F127">
+        <v>0.1528077753779698</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>45712.208333333343</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>2025</v>
+      </c>
+      <c r="D128">
+        <v>5002</v>
+      </c>
+      <c r="E128">
+        <v>903</v>
+      </c>
+      <c r="F128">
+        <v>0.18052778888444621</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>45719.208333333343</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>2025</v>
+      </c>
+      <c r="D129">
+        <v>3909</v>
+      </c>
+      <c r="E129">
+        <v>861</v>
+      </c>
+      <c r="F129">
+        <v>0.2202609363008442</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>45726.208333333343</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>2025</v>
+      </c>
+      <c r="D130">
+        <v>3632</v>
+      </c>
+      <c r="E130">
+        <v>591</v>
+      </c>
+      <c r="F130">
+        <v>0.16272026431718059</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>45733.208333333343</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>2025</v>
+      </c>
+      <c r="D131">
+        <v>4891</v>
+      </c>
+      <c r="E131">
+        <v>1030</v>
+      </c>
+      <c r="F131">
+        <v>0.21059088121038641</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>45740.208333333343</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>2025</v>
+      </c>
+      <c r="D132">
+        <v>4487</v>
+      </c>
+      <c r="E132">
+        <v>851</v>
+      </c>
+      <c r="F132">
+        <v>0.18965901493202589</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>45747.208333333343</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>2025</v>
+      </c>
+      <c r="D133">
+        <v>633</v>
+      </c>
+      <c r="E133">
+        <v>127</v>
+      </c>
+      <c r="F133">
+        <v>0.20063191153238549</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2833,10 +3093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5244,6 +5504,266 @@
         <v>0.13791315618924169</v>
       </c>
     </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>45663.125</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>2025</v>
+      </c>
+      <c r="D121">
+        <v>64845</v>
+      </c>
+      <c r="E121">
+        <v>5080</v>
+      </c>
+      <c r="F121">
+        <v>7.8340658493330245E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>45670.125</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>2025</v>
+      </c>
+      <c r="D122">
+        <v>37137</v>
+      </c>
+      <c r="E122">
+        <v>3166</v>
+      </c>
+      <c r="F122">
+        <v>8.5251905108113202E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>45677.125</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>2025</v>
+      </c>
+      <c r="D123">
+        <v>39865</v>
+      </c>
+      <c r="E123">
+        <v>3919</v>
+      </c>
+      <c r="F123">
+        <v>9.8306785400727459E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>45684.125</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>2025</v>
+      </c>
+      <c r="D124">
+        <v>42894</v>
+      </c>
+      <c r="E124">
+        <v>4065</v>
+      </c>
+      <c r="F124">
+        <v>9.476849909078193E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>45691.125</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>2025</v>
+      </c>
+      <c r="D125">
+        <v>61637</v>
+      </c>
+      <c r="E125">
+        <v>7045</v>
+      </c>
+      <c r="F125">
+        <v>0.1142982299592777</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>45698.125</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>2025</v>
+      </c>
+      <c r="D126">
+        <v>43647</v>
+      </c>
+      <c r="E126">
+        <v>5329</v>
+      </c>
+      <c r="F126">
+        <v>0.1220931564597796</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>45705.125</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>2025</v>
+      </c>
+      <c r="D127">
+        <v>52976</v>
+      </c>
+      <c r="E127">
+        <v>4828</v>
+      </c>
+      <c r="F127">
+        <v>9.1135608577469038E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>45712.125</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>2025</v>
+      </c>
+      <c r="D128">
+        <v>145657</v>
+      </c>
+      <c r="E128">
+        <v>16392</v>
+      </c>
+      <c r="F128">
+        <v>0.1125383606692435</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>45719.125</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>2025</v>
+      </c>
+      <c r="D129">
+        <v>67061</v>
+      </c>
+      <c r="E129">
+        <v>8468</v>
+      </c>
+      <c r="F129">
+        <v>0.12627309464517381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>45726.125</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>2025</v>
+      </c>
+      <c r="D130">
+        <v>35320</v>
+      </c>
+      <c r="E130">
+        <v>3472</v>
+      </c>
+      <c r="F130">
+        <v>9.8301245753114386E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>45733.125</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>2025</v>
+      </c>
+      <c r="D131">
+        <v>65297</v>
+      </c>
+      <c r="E131">
+        <v>6706</v>
+      </c>
+      <c r="F131">
+        <v>0.1026999709021854</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>45740.125</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>2025</v>
+      </c>
+      <c r="D132">
+        <v>39179</v>
+      </c>
+      <c r="E132">
+        <v>3424</v>
+      </c>
+      <c r="F132">
+        <v>8.7393756859542107E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>45747.125</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>2025</v>
+      </c>
+      <c r="D133">
+        <v>5703</v>
+      </c>
+      <c r="E133">
+        <v>241</v>
+      </c>
+      <c r="F133">
+        <v>4.2258460459407329E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5251,10 +5771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7665,6 +8185,266 @@
         <v>0.16481746599856839</v>
       </c>
     </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>45663.208333333343</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>2025</v>
+      </c>
+      <c r="D121">
+        <v>13426</v>
+      </c>
+      <c r="E121">
+        <v>1426</v>
+      </c>
+      <c r="F121">
+        <v>0.10621182779681219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>45670.208333333343</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>2025</v>
+      </c>
+      <c r="D122">
+        <v>7924</v>
+      </c>
+      <c r="E122">
+        <v>773</v>
+      </c>
+      <c r="F122">
+        <v>9.75517415446744E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>45677.208333333343</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>2025</v>
+      </c>
+      <c r="D123">
+        <v>16479</v>
+      </c>
+      <c r="E123">
+        <v>1508</v>
+      </c>
+      <c r="F123">
+        <v>9.1510407184901998E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>45684.208333333343</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>2025</v>
+      </c>
+      <c r="D124">
+        <v>33887</v>
+      </c>
+      <c r="E124">
+        <v>2770</v>
+      </c>
+      <c r="F124">
+        <v>8.1742261044058198E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>45691.208333333343</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>2025</v>
+      </c>
+      <c r="D125">
+        <v>16123</v>
+      </c>
+      <c r="E125">
+        <v>2193</v>
+      </c>
+      <c r="F125">
+        <v>0.13601687030949569</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>45698.208333333343</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>2025</v>
+      </c>
+      <c r="D126">
+        <v>8895</v>
+      </c>
+      <c r="E126">
+        <v>1499</v>
+      </c>
+      <c r="F126">
+        <v>0.16852164137155709</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>45705.208333333343</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>2025</v>
+      </c>
+      <c r="D127">
+        <v>4657</v>
+      </c>
+      <c r="E127">
+        <v>776</v>
+      </c>
+      <c r="F127">
+        <v>0.16663087824779901</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>45712.208333333343</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>2025</v>
+      </c>
+      <c r="D128">
+        <v>7743</v>
+      </c>
+      <c r="E128">
+        <v>1523</v>
+      </c>
+      <c r="F128">
+        <v>0.1966937879374919</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>45719.208333333343</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>2025</v>
+      </c>
+      <c r="D129">
+        <v>7160</v>
+      </c>
+      <c r="E129">
+        <v>2076</v>
+      </c>
+      <c r="F129">
+        <v>0.28994413407821229</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>45726.208333333343</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>2025</v>
+      </c>
+      <c r="D130">
+        <v>9020</v>
+      </c>
+      <c r="E130">
+        <v>1406</v>
+      </c>
+      <c r="F130">
+        <v>0.15587583148558759</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>45733.208333333343</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>2025</v>
+      </c>
+      <c r="D131">
+        <v>9836</v>
+      </c>
+      <c r="E131">
+        <v>2472</v>
+      </c>
+      <c r="F131">
+        <v>0.25132167547783651</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>45740.208333333343</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>2025</v>
+      </c>
+      <c r="D132">
+        <v>13051</v>
+      </c>
+      <c r="E132">
+        <v>2722</v>
+      </c>
+      <c r="F132">
+        <v>0.20856639337981761</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>45747.208333333343</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>2025</v>
+      </c>
+      <c r="D133">
+        <v>1990</v>
+      </c>
+      <c r="E133">
+        <v>217</v>
+      </c>
+      <c r="F133">
+        <v>0.1090452261306533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7672,10 +8452,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="L126" sqref="L126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10083,6 +10863,266 @@
         <v>0.2329931972789116</v>
       </c>
     </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>45663.208333333343</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>2025</v>
+      </c>
+      <c r="D121">
+        <v>19718</v>
+      </c>
+      <c r="E121">
+        <v>3053</v>
+      </c>
+      <c r="F121">
+        <v>0.15483314737803019</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>45670.208333333343</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>2025</v>
+      </c>
+      <c r="D122">
+        <v>7929</v>
+      </c>
+      <c r="E122">
+        <v>1428</v>
+      </c>
+      <c r="F122">
+        <v>0.18009837306091561</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>45677.208333333343</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>2025</v>
+      </c>
+      <c r="D123">
+        <v>15720</v>
+      </c>
+      <c r="E123">
+        <v>3311</v>
+      </c>
+      <c r="F123">
+        <v>0.2106234096692112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>45684.208333333343</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>2025</v>
+      </c>
+      <c r="D124">
+        <v>18221</v>
+      </c>
+      <c r="E124">
+        <v>3917</v>
+      </c>
+      <c r="F124">
+        <v>0.21497173590911589</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>45691.208333333343</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>2025</v>
+      </c>
+      <c r="D125">
+        <v>13158</v>
+      </c>
+      <c r="E125">
+        <v>2452</v>
+      </c>
+      <c r="F125">
+        <v>0.18635050919592641</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>45698.208333333343</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>2025</v>
+      </c>
+      <c r="D126">
+        <v>10052</v>
+      </c>
+      <c r="E126">
+        <v>1571</v>
+      </c>
+      <c r="F126">
+        <v>0.15628730600875451</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>45705.208333333343</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>2025</v>
+      </c>
+      <c r="D127">
+        <v>7254</v>
+      </c>
+      <c r="E127">
+        <v>1122</v>
+      </c>
+      <c r="F127">
+        <v>0.15467328370554179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>45712.208333333343</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>2025</v>
+      </c>
+      <c r="D128">
+        <v>8774</v>
+      </c>
+      <c r="E128">
+        <v>1926</v>
+      </c>
+      <c r="F128">
+        <v>0.21951219512195119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>45719.208333333343</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>2025</v>
+      </c>
+      <c r="D129">
+        <v>8118</v>
+      </c>
+      <c r="E129">
+        <v>1379</v>
+      </c>
+      <c r="F129">
+        <v>0.16986942596698701</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>45726.208333333343</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>2025</v>
+      </c>
+      <c r="D130">
+        <v>8137</v>
+      </c>
+      <c r="E130">
+        <v>1253</v>
+      </c>
+      <c r="F130">
+        <v>0.15398795624923189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>45733.208333333343</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>2025</v>
+      </c>
+      <c r="D131">
+        <v>12175</v>
+      </c>
+      <c r="E131">
+        <v>2786</v>
+      </c>
+      <c r="F131">
+        <v>0.228829568788501</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>45740.208333333343</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>2025</v>
+      </c>
+      <c r="D132">
+        <v>16397</v>
+      </c>
+      <c r="E132">
+        <v>4669</v>
+      </c>
+      <c r="F132">
+        <v>0.28474720985546143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>45747.208333333343</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>2025</v>
+      </c>
+      <c r="D133">
+        <v>1310</v>
+      </c>
+      <c r="E133">
+        <v>207</v>
+      </c>
+      <c r="F133">
+        <v>0.15801526717557249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/xenofobia_hub.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/xenofobia_hub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C88EB5-C555-634A-ABB6-F551443502FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D4614B-BDFD-5049-A702-7B2E73E0FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="17700" windowHeight="19800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="17700" windowHeight="19580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colombia" sheetId="1" r:id="rId1"/>
@@ -8452,10 +8452,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="L126" sqref="L126"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11123,6 +11123,286 @@
         <v>0.15801526717557249</v>
       </c>
     </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>45747.208333333343</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>2025</v>
+      </c>
+      <c r="D134">
+        <v>3202</v>
+      </c>
+      <c r="E134">
+        <v>634</v>
+      </c>
+      <c r="F134">
+        <v>0.19800124921923801</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>45754.208333333343</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>2025</v>
+      </c>
+      <c r="D135">
+        <v>3902</v>
+      </c>
+      <c r="E135">
+        <v>728</v>
+      </c>
+      <c r="F135">
+        <v>0.18657098923628909</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>45761.208333333343</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>2025</v>
+      </c>
+      <c r="D136">
+        <v>3650</v>
+      </c>
+      <c r="E136">
+        <v>651</v>
+      </c>
+      <c r="F136">
+        <v>0.17835616438356161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>45768.208333333343</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>2025</v>
+      </c>
+      <c r="D137">
+        <v>3522</v>
+      </c>
+      <c r="E137">
+        <v>721</v>
+      </c>
+      <c r="F137">
+        <v>0.20471323111868259</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>45775.208333333343</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>2025</v>
+      </c>
+      <c r="D138">
+        <v>3513</v>
+      </c>
+      <c r="E138">
+        <v>682</v>
+      </c>
+      <c r="F138">
+        <v>0.1941360660404213</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>45782.208333333343</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>2025</v>
+      </c>
+      <c r="D139">
+        <v>3192</v>
+      </c>
+      <c r="E139">
+        <v>555</v>
+      </c>
+      <c r="F139">
+        <v>0.17387218045112779</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>45789.208333333343</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>2025</v>
+      </c>
+      <c r="D140">
+        <v>3110</v>
+      </c>
+      <c r="E140">
+        <v>524</v>
+      </c>
+      <c r="F140">
+        <v>0.1684887459807074</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>45796.208333333343</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>2025</v>
+      </c>
+      <c r="D141">
+        <v>3685</v>
+      </c>
+      <c r="E141">
+        <v>562</v>
+      </c>
+      <c r="F141">
+        <v>0.15251017639077341</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>45803.208333333343</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>2025</v>
+      </c>
+      <c r="D142">
+        <v>3625</v>
+      </c>
+      <c r="E142">
+        <v>645</v>
+      </c>
+      <c r="F142">
+        <v>0.1779310344827586</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>45810.208333333343</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <v>2025</v>
+      </c>
+      <c r="D143">
+        <v>4378</v>
+      </c>
+      <c r="E143">
+        <v>874</v>
+      </c>
+      <c r="F143">
+        <v>0.19963453631795339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>45817.208333333343</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>2025</v>
+      </c>
+      <c r="D144">
+        <v>4143</v>
+      </c>
+      <c r="E144">
+        <v>786</v>
+      </c>
+      <c r="F144">
+        <v>0.1897175959449674</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>45824.208333333343</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145">
+        <v>2025</v>
+      </c>
+      <c r="D145">
+        <v>3694</v>
+      </c>
+      <c r="E145">
+        <v>688</v>
+      </c>
+      <c r="F145">
+        <v>0.18624796968056309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>45831.208333333343</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <v>2025</v>
+      </c>
+      <c r="D146">
+        <v>3349</v>
+      </c>
+      <c r="E146">
+        <v>557</v>
+      </c>
+      <c r="F146">
+        <v>0.16631830397133471</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>45838.208333333343</v>
+      </c>
+      <c r="B147">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>2025</v>
+      </c>
+      <c r="D147">
+        <v>528</v>
+      </c>
+      <c r="E147">
+        <v>94</v>
+      </c>
+      <c r="F147">
+        <v>0.17803030303030301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
